--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11270903261072</v>
+        <v>21.11270903261073</v>
       </c>
       <c r="C2">
-        <v>17.56237859774386</v>
+        <v>17.56237859774382</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.08681907963921</v>
+        <v>30.08681907963926</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.70356234491168</v>
+        <v>20.70356234491166</v>
       </c>
       <c r="H2">
-        <v>16.11938824666336</v>
+        <v>16.11938824666329</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.60281514412934</v>
+        <v>19.60281514412937</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64849849082033</v>
+        <v>19.64849849082027</v>
       </c>
       <c r="C3">
-        <v>16.30815019117135</v>
+        <v>16.30815019117137</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,16 +465,16 @@
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.85601969732965</v>
+        <v>19.85601969732968</v>
       </c>
       <c r="H3">
-        <v>15.84627461265256</v>
+        <v>15.84627461265258</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>18.26981233570803</v>
+        <v>18.26981233570801</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.70380227120802</v>
+        <v>18.70380227120812</v>
       </c>
       <c r="C4">
-        <v>15.50229925133552</v>
+        <v>15.5022992513353</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.36703511248449</v>
+        <v>26.36703511248454</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.36198755570643</v>
+        <v>19.36198755570635</v>
       </c>
       <c r="H4">
-        <v>15.7108818177047</v>
+        <v>15.71088181770455</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.41167580914958</v>
+        <v>17.41167580914957</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30713847424077</v>
+        <v>18.30713847424083</v>
       </c>
       <c r="C5">
-        <v>15.16468243945733</v>
+        <v>15.16468243945737</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.76181838611792</v>
+        <v>25.76181838611794</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>19.1671840019725</v>
+        <v>19.16718400197254</v>
       </c>
       <c r="H5">
-        <v>15.66330570851743</v>
+        <v>15.66330570851751</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.0518198661878</v>
+        <v>17.05181986618785</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24056079910584</v>
+        <v>18.24056079910594</v>
       </c>
       <c r="C6">
-        <v>15.10805770839075</v>
+        <v>15.10805770839087</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.66042650334647</v>
+        <v>25.66042650334651</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>19.13522765160272</v>
+        <v>19.13522765160253</v>
       </c>
       <c r="H6">
-        <v>15.65584911773174</v>
+        <v>15.65584911773149</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.99144763765644</v>
+        <v>16.99144763765655</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.69850033006314</v>
+        <v>18.69850033006303</v>
       </c>
       <c r="C7">
-        <v>15.49778368526866</v>
+        <v>15.49778368526862</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.35893266227087</v>
+        <v>26.35893266227077</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>19.35933411236702</v>
+        <v>19.35933411236708</v>
       </c>
       <c r="H7">
-        <v>15.71021012625383</v>
+        <v>15.71021012625395</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.40686402146245</v>
+        <v>17.40686402146237</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.617194452269</v>
+        <v>20.6171944522691</v>
       </c>
       <c r="C8">
-        <v>17.13719064589506</v>
+        <v>17.13719064589515</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.31511937030085</v>
+        <v>29.31511937030084</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.40578637364818</v>
+        <v>20.40578637364813</v>
       </c>
       <c r="H8">
-        <v>16.01820159516386</v>
+        <v>16.01820159516377</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>19.15131000182751</v>
+        <v>19.15131000182764</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02804902972537</v>
+        <v>24.02804902972535</v>
       </c>
       <c r="C9">
-        <v>20.08046883213534</v>
+        <v>20.08046883213538</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.70410480051147</v>
+        <v>34.70410480051155</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>22.67360354159555</v>
+        <v>22.67360354159552</v>
       </c>
       <c r="H9">
         <v>16.90160127043628</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.26718207717305</v>
+        <v>22.26718207717303</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>26.33656414164174</v>
       </c>
       <c r="C10">
-        <v>22.09675381821726</v>
+        <v>22.09675381821729</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.46675520564182</v>
+        <v>38.4667552056418</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>24.4848797809668</v>
+        <v>24.48487978096677</v>
       </c>
       <c r="H10">
-        <v>17.75293350587071</v>
+        <v>17.75293350587074</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.38661737003001</v>
+        <v>24.38661737003002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.34842685967996</v>
+        <v>27.34842685967995</v>
       </c>
       <c r="C11">
-        <v>22.98754986556999</v>
+        <v>22.98754986556992</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.15031723923087</v>
+        <v>40.15031723923093</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>25.55798602959437</v>
+        <v>25.55798602959444</v>
       </c>
       <c r="H11">
-        <v>18.19144090286403</v>
+        <v>18.19144090286407</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.72654023823574</v>
+        <v>27.72654023823566</v>
       </c>
       <c r="C12">
-        <v>23.32160704572746</v>
+        <v>23.32160704572751</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.78531517932005</v>
+        <v>40.78531517931998</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>25.96920474106711</v>
+        <v>25.96920474106709</v>
       </c>
       <c r="H12">
-        <v>18.36553022031953</v>
+        <v>18.36553022031954</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.66700992796299</v>
+        <v>25.66700992796295</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64532365366431</v>
+        <v>27.64532365366443</v>
       </c>
       <c r="C13">
         <v>23.24979765041226</v>
@@ -839,22 +839,22 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.6486421047416</v>
+        <v>40.64864210474153</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>25.88053986493005</v>
+        <v>25.88053986493014</v>
       </c>
       <c r="H13">
-        <v>18.32766793623037</v>
+        <v>18.32766793623038</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.59210511902508</v>
+        <v>25.59210511902516</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.37963296771809</v>
+        <v>27.37963296771811</v>
       </c>
       <c r="C14">
         <v>23.01509504338167</v>
@@ -877,22 +877,22 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.2025998453132</v>
+        <v>40.20259984531327</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>25.59177276017881</v>
+        <v>25.59177276017883</v>
       </c>
       <c r="H14">
-        <v>18.20559812951367</v>
+        <v>18.20559812951366</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.34714271622478</v>
+        <v>25.34714271622482</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.21624585631604</v>
+        <v>27.21624585631599</v>
       </c>
       <c r="C15">
-        <v>22.87092480568552</v>
+        <v>22.87092480568546</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.92910666465056</v>
+        <v>39.92910666465048</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>25.41517699832533</v>
+        <v>25.41517699832531</v>
       </c>
       <c r="H15">
-        <v>18.13189473906603</v>
+        <v>18.13189473906608</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>25.19656302003284</v>
+        <v>25.1965630200328</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.2697026624227</v>
+        <v>26.26970266242272</v>
       </c>
       <c r="C16">
-        <v>22.03804977439327</v>
+        <v>22.03804977439322</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.35628734920549</v>
+        <v>38.35628734920557</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.4294307229458</v>
+        <v>24.42943072294585</v>
       </c>
       <c r="H16">
-        <v>17.72536223853904</v>
+        <v>17.72536223853908</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.32510949830358</v>
+        <v>24.32510949830356</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>25.67951773143854</v>
       </c>
       <c r="C17">
-        <v>21.52068937876038</v>
+        <v>21.52068937876041</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.38520070179055</v>
+        <v>37.38520070179063</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>23.9476172062812</v>
+        <v>23.94761720628119</v>
       </c>
       <c r="H17">
         <v>17.48954068135541</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.78250214801511</v>
+        <v>23.78250214801513</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33642377901076</v>
+        <v>25.33642377901075</v>
       </c>
       <c r="C18">
-        <v>21.22059353265966</v>
+        <v>21.22059353265964</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.82390769061954</v>
+        <v>36.82390769061949</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>23.67387468974305</v>
+        <v>23.67387468974314</v>
       </c>
       <c r="H18">
-        <v>17.35868079555169</v>
+        <v>17.35868079555179</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.46732980994918</v>
+        <v>23.46732980994921</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>25.21962124443178</v>
       </c>
       <c r="C19">
-        <v>21.11853810043702</v>
+        <v>21.11853810043706</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.63335012574983</v>
+        <v>36.63335012574988</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
         <v>23.58175633104513</v>
       </c>
       <c r="H19">
-        <v>17.31517550447135</v>
+        <v>17.3151755044713</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.36007668240412</v>
+        <v>23.36007668240416</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.74271714189581</v>
+        <v>25.74271714189576</v>
       </c>
       <c r="C20">
-        <v>21.57602093824343</v>
+        <v>21.57602093824337</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>37.48884914989124</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
         <v>23.99855317549713</v>
       </c>
       <c r="H20">
-        <v>17.5141451578159</v>
+        <v>17.51414515781596</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.84057929284304</v>
+        <v>23.84057929284296</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.45780603206026</v>
+        <v>27.45780603206022</v>
       </c>
       <c r="C21">
-        <v>23.08411684497697</v>
+        <v>23.08411684497696</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.33366834685325</v>
+        <v>40.33366834685324</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.67653024486317</v>
+        <v>25.67653024486312</v>
       </c>
       <c r="H21">
-        <v>18.24122911704979</v>
+        <v>18.24122911704987</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.41920429602206</v>
+        <v>25.41920429602198</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.5495095557783</v>
+        <v>28.5495095557782</v>
       </c>
       <c r="C22">
         <v>24.05102093360473</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.1791197237462</v>
+        <v>42.17911972374614</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>26.87803943488829</v>
+        <v>26.87803943488818</v>
       </c>
       <c r="H22">
-        <v>18.76364459087082</v>
+        <v>18.7636445908708</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>26.42667768237006</v>
+        <v>26.42667768237001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.96934884430146</v>
+        <v>27.96934884430139</v>
       </c>
       <c r="C23">
-        <v>23.53647609513991</v>
+        <v>23.5364760951399</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.1948447139481</v>
+        <v>41.19484471394805</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>26.23538073791861</v>
+        <v>26.23538073791856</v>
       </c>
       <c r="H23">
-        <v>18.48025411190429</v>
+        <v>18.48025411190432</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.89101739438712</v>
+        <v>25.89101739438706</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.71415652226011</v>
+        <v>25.71415652226019</v>
       </c>
       <c r="C24">
-        <v>21.55101385917408</v>
+        <v>21.55101385917415</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.4419991460004</v>
+        <v>37.44199914600046</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>23.9755149160615</v>
+        <v>23.97551491606155</v>
       </c>
       <c r="H24">
-        <v>17.5030068306802</v>
+        <v>17.50300683068022</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.81433267820076</v>
+        <v>23.81433267820086</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14135872774277</v>
+        <v>23.1413587277427</v>
       </c>
       <c r="C25">
-        <v>19.31147077972416</v>
+        <v>19.31147077972414</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.28504597845088</v>
+        <v>33.28504597845077</v>
       </c>
       <c r="F25">
         <v>33.19272459127055</v>
       </c>
       <c r="G25">
-        <v>22.03587610719482</v>
+        <v>22.03587610719481</v>
       </c>
       <c r="H25">
-        <v>16.6294405323271</v>
+        <v>16.62944053232711</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.45539423396064</v>
+        <v>21.45539423396058</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11270903261073</v>
+        <v>21.11270903261072</v>
       </c>
       <c r="C2">
-        <v>17.56237859774382</v>
+        <v>17.56237859774386</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.08681907963926</v>
+        <v>30.08681907963921</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.70356234491166</v>
+        <v>20.70356234491168</v>
       </c>
       <c r="H2">
-        <v>16.11938824666329</v>
+        <v>16.11938824666336</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.60281514412937</v>
+        <v>19.60281514412934</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64849849082027</v>
+        <v>19.64849849082033</v>
       </c>
       <c r="C3">
-        <v>16.30815019117137</v>
+        <v>16.30815019117135</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,16 +465,16 @@
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.85601969732968</v>
+        <v>19.85601969732965</v>
       </c>
       <c r="H3">
-        <v>15.84627461265258</v>
+        <v>15.84627461265256</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>18.26981233570801</v>
+        <v>18.26981233570803</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.70380227120812</v>
+        <v>18.70380227120802</v>
       </c>
       <c r="C4">
-        <v>15.5022992513353</v>
+        <v>15.50229925133552</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.36703511248454</v>
+        <v>26.36703511248449</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.36198755570635</v>
+        <v>19.36198755570643</v>
       </c>
       <c r="H4">
-        <v>15.71088181770455</v>
+        <v>15.7108818177047</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.41167580914957</v>
+        <v>17.41167580914958</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30713847424083</v>
+        <v>18.30713847424077</v>
       </c>
       <c r="C5">
-        <v>15.16468243945737</v>
+        <v>15.16468243945733</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.76181838611794</v>
+        <v>25.76181838611792</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.16718400197254</v>
+        <v>19.1671840019725</v>
       </c>
       <c r="H5">
-        <v>15.66330570851751</v>
+        <v>15.66330570851743</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>17.05181986618785</v>
+        <v>17.0518198661878</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24056079910594</v>
+        <v>18.24056079910584</v>
       </c>
       <c r="C6">
-        <v>15.10805770839087</v>
+        <v>15.10805770839075</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.66042650334651</v>
+        <v>25.66042650334647</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.13522765160253</v>
+        <v>19.13522765160272</v>
       </c>
       <c r="H6">
-        <v>15.65584911773149</v>
+        <v>15.65584911773174</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.99144763765655</v>
+        <v>16.99144763765644</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.69850033006303</v>
+        <v>18.69850033006314</v>
       </c>
       <c r="C7">
-        <v>15.49778368526862</v>
+        <v>15.49778368526866</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.35893266227077</v>
+        <v>26.35893266227087</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.35933411236708</v>
+        <v>19.35933411236702</v>
       </c>
       <c r="H7">
-        <v>15.71021012625395</v>
+        <v>15.71021012625383</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.40686402146237</v>
+        <v>17.40686402146245</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6171944522691</v>
+        <v>20.617194452269</v>
       </c>
       <c r="C8">
-        <v>17.13719064589515</v>
+        <v>17.13719064589506</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.31511937030084</v>
+        <v>29.31511937030085</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.40578637364813</v>
+        <v>20.40578637364818</v>
       </c>
       <c r="H8">
-        <v>16.01820159516377</v>
+        <v>16.01820159516386</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>19.15131000182764</v>
+        <v>19.15131000182751</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02804902972535</v>
+        <v>24.02804902972537</v>
       </c>
       <c r="C9">
-        <v>20.08046883213538</v>
+        <v>20.08046883213534</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.70410480051155</v>
+        <v>34.70410480051147</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>22.67360354159552</v>
+        <v>22.67360354159555</v>
       </c>
       <c r="H9">
         <v>16.90160127043628</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.26718207717303</v>
+        <v>22.26718207717305</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>26.33656414164174</v>
       </c>
       <c r="C10">
-        <v>22.09675381821729</v>
+        <v>22.09675381821726</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.4667552056418</v>
+        <v>38.46675520564182</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.48487978096677</v>
+        <v>24.4848797809668</v>
       </c>
       <c r="H10">
-        <v>17.75293350587074</v>
+        <v>17.75293350587071</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.38661737003002</v>
+        <v>24.38661737003001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.34842685967995</v>
+        <v>27.34842685967996</v>
       </c>
       <c r="C11">
-        <v>22.98754986556992</v>
+        <v>22.98754986556999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.15031723923093</v>
+        <v>40.15031723923087</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>25.55798602959444</v>
+        <v>25.55798602959437</v>
       </c>
       <c r="H11">
-        <v>18.19144090286407</v>
+        <v>18.19144090286403</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.72654023823566</v>
+        <v>27.72654023823574</v>
       </c>
       <c r="C12">
-        <v>23.32160704572751</v>
+        <v>23.32160704572746</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.78531517931998</v>
+        <v>40.78531517932005</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>25.96920474106709</v>
+        <v>25.96920474106711</v>
       </c>
       <c r="H12">
-        <v>18.36553022031954</v>
+        <v>18.36553022031953</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.66700992796295</v>
+        <v>25.66700992796299</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64532365366443</v>
+        <v>27.64532365366431</v>
       </c>
       <c r="C13">
         <v>23.24979765041226</v>
@@ -839,22 +839,22 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.64864210474153</v>
+        <v>40.6486421047416</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>25.88053986493014</v>
+        <v>25.88053986493005</v>
       </c>
       <c r="H13">
-        <v>18.32766793623038</v>
+        <v>18.32766793623037</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.59210511902516</v>
+        <v>25.59210511902508</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.37963296771811</v>
+        <v>27.37963296771809</v>
       </c>
       <c r="C14">
         <v>23.01509504338167</v>
@@ -877,22 +877,22 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.20259984531327</v>
+        <v>40.2025998453132</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>25.59177276017883</v>
+        <v>25.59177276017881</v>
       </c>
       <c r="H14">
-        <v>18.20559812951366</v>
+        <v>18.20559812951367</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.34714271622482</v>
+        <v>25.34714271622478</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.21624585631599</v>
+        <v>27.21624585631604</v>
       </c>
       <c r="C15">
-        <v>22.87092480568546</v>
+        <v>22.87092480568552</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.92910666465048</v>
+        <v>39.92910666465056</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>25.41517699832531</v>
+        <v>25.41517699832533</v>
       </c>
       <c r="H15">
-        <v>18.13189473906608</v>
+        <v>18.13189473906603</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>25.1965630200328</v>
+        <v>25.19656302003284</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.26970266242272</v>
+        <v>26.2697026624227</v>
       </c>
       <c r="C16">
-        <v>22.03804977439322</v>
+        <v>22.03804977439327</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.35628734920557</v>
+        <v>38.35628734920549</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.42943072294585</v>
+        <v>24.4294307229458</v>
       </c>
       <c r="H16">
-        <v>17.72536223853908</v>
+        <v>17.72536223853904</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>24.32510949830356</v>
+        <v>24.32510949830358</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>25.67951773143854</v>
       </c>
       <c r="C17">
-        <v>21.52068937876041</v>
+        <v>21.52068937876038</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.38520070179063</v>
+        <v>37.38520070179055</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.94761720628119</v>
+        <v>23.9476172062812</v>
       </c>
       <c r="H17">
         <v>17.48954068135541</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.78250214801513</v>
+        <v>23.78250214801511</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33642377901075</v>
+        <v>25.33642377901076</v>
       </c>
       <c r="C18">
-        <v>21.22059353265964</v>
+        <v>21.22059353265966</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.82390769061949</v>
+        <v>36.82390769061954</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.67387468974314</v>
+        <v>23.67387468974305</v>
       </c>
       <c r="H18">
-        <v>17.35868079555179</v>
+        <v>17.35868079555169</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.46732980994921</v>
+        <v>23.46732980994918</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>25.21962124443178</v>
       </c>
       <c r="C19">
-        <v>21.11853810043706</v>
+        <v>21.11853810043702</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.63335012574988</v>
+        <v>36.63335012574983</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
         <v>23.58175633104513</v>
       </c>
       <c r="H19">
-        <v>17.3151755044713</v>
+        <v>17.31517550447135</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.36007668240416</v>
+        <v>23.36007668240412</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.74271714189576</v>
+        <v>25.74271714189581</v>
       </c>
       <c r="C20">
-        <v>21.57602093824337</v>
+        <v>21.57602093824343</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>37.48884914989124</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>23.99855317549713</v>
       </c>
       <c r="H20">
-        <v>17.51414515781596</v>
+        <v>17.5141451578159</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.84057929284296</v>
+        <v>23.84057929284304</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.45780603206022</v>
+        <v>27.45780603206026</v>
       </c>
       <c r="C21">
-        <v>23.08411684497696</v>
+        <v>23.08411684497697</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.33366834685324</v>
+        <v>40.33366834685325</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.67653024486312</v>
+        <v>25.67653024486317</v>
       </c>
       <c r="H21">
-        <v>18.24122911704987</v>
+        <v>18.24122911704979</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.41920429602198</v>
+        <v>25.41920429602206</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.5495095557782</v>
+        <v>28.5495095557783</v>
       </c>
       <c r="C22">
         <v>24.05102093360473</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.17911972374614</v>
+        <v>42.1791197237462</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>26.87803943488818</v>
+        <v>26.87803943488829</v>
       </c>
       <c r="H22">
-        <v>18.7636445908708</v>
+        <v>18.76364459087082</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>26.42667768237001</v>
+        <v>26.42667768237006</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.96934884430139</v>
+        <v>27.96934884430146</v>
       </c>
       <c r="C23">
-        <v>23.5364760951399</v>
+        <v>23.53647609513991</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.19484471394805</v>
+        <v>41.1948447139481</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>26.23538073791856</v>
+        <v>26.23538073791861</v>
       </c>
       <c r="H23">
-        <v>18.48025411190432</v>
+        <v>18.48025411190429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.89101739438706</v>
+        <v>25.89101739438712</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.71415652226019</v>
+        <v>25.71415652226011</v>
       </c>
       <c r="C24">
-        <v>21.55101385917415</v>
+        <v>21.55101385917408</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.44199914600046</v>
+        <v>37.4419991460004</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.97551491606155</v>
+        <v>23.9755149160615</v>
       </c>
       <c r="H24">
-        <v>17.50300683068022</v>
+        <v>17.5030068306802</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.81433267820086</v>
+        <v>23.81433267820076</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.1413587277427</v>
+        <v>23.14135872774277</v>
       </c>
       <c r="C25">
-        <v>19.31147077972414</v>
+        <v>19.31147077972416</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.28504597845077</v>
+        <v>33.28504597845088</v>
       </c>
       <c r="F25">
         <v>33.19272459127055</v>
       </c>
       <c r="G25">
-        <v>22.03587610719481</v>
+        <v>22.03587610719482</v>
       </c>
       <c r="H25">
-        <v>16.62944053232711</v>
+        <v>16.6294405323271</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.45539423396058</v>
+        <v>21.45539423396064</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11270903261072</v>
+        <v>21.1123629264641</v>
       </c>
       <c r="C2">
-        <v>17.56237859774386</v>
+        <v>17.55688842743104</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.08681907963921</v>
+        <v>30.08638692146167</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.70356234491168</v>
+        <v>19.69599979619534</v>
       </c>
       <c r="H2">
-        <v>16.11938824666336</v>
+        <v>20.72686389701519</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.09927558692453</v>
       </c>
       <c r="J2">
-        <v>19.60281514412934</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.60078802265058</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64849849082033</v>
+        <v>19.64837370199971</v>
       </c>
       <c r="C3">
-        <v>16.30815019117135</v>
+        <v>16.30324148433455</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.81647598201607</v>
+        <v>27.8162226117682</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.85601969732965</v>
+        <v>18.55392402964664</v>
       </c>
       <c r="H3">
-        <v>15.84627461265256</v>
+        <v>19.87880167593661</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.82793211343974</v>
       </c>
       <c r="J3">
-        <v>18.26981233570803</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.26814081692506</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.70380227120802</v>
+        <v>18.70380768205804</v>
       </c>
       <c r="C4">
-        <v>15.50229925133552</v>
+        <v>15.49775195495292</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.36703511248449</v>
+        <v>26.36687736793288</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.36198755570643</v>
+        <v>17.86359488358138</v>
       </c>
       <c r="H4">
-        <v>15.7108818177047</v>
+        <v>19.38455303447411</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.69364768594154</v>
       </c>
       <c r="J4">
-        <v>17.41167580914958</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.41022303958977</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30713847424077</v>
+        <v>18.30719587645905</v>
       </c>
       <c r="C5">
-        <v>15.16468243945733</v>
+        <v>15.16028399763906</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.76181838611792</v>
+        <v>25.76169662369357</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.1671840019725</v>
+        <v>17.58514057004393</v>
       </c>
       <c r="H5">
-        <v>15.66330570851743</v>
+        <v>19.18968661583082</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.64652742304046</v>
       </c>
       <c r="J5">
-        <v>17.0518198661878</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.05045677663684</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24056079910584</v>
+        <v>18.24062678017856</v>
       </c>
       <c r="C6">
-        <v>15.10805770839075</v>
+        <v>15.10368409213971</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.66042650334647</v>
+        <v>25.66031055026548</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.13522765160272</v>
+        <v>17.53908108869995</v>
       </c>
       <c r="H6">
-        <v>15.65584911773174</v>
+        <v>19.1577213417036</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.63914674222944</v>
       </c>
       <c r="J6">
-        <v>16.99144763765644</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.99009948423815</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.69850033006314</v>
+        <v>18.69850644594287</v>
       </c>
       <c r="C7">
-        <v>15.49778368526866</v>
+        <v>15.49323838940774</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.35893266227087</v>
+        <v>26.3587754143922</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.35933411236702</v>
+        <v>17.85982775873229</v>
       </c>
       <c r="H7">
-        <v>15.71021012625383</v>
+        <v>19.38189864135663</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.69298212688041</v>
       </c>
       <c r="J7">
-        <v>17.40686402146245</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.4054124586205</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.617194452269</v>
+        <v>20.61692606739728</v>
       </c>
       <c r="C8">
-        <v>17.13719064589506</v>
+        <v>17.13190035118364</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.31511937030085</v>
+        <v>29.31475217283003</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.40578637364818</v>
+        <v>19.29999199210366</v>
       </c>
       <c r="H8">
-        <v>16.01820159516386</v>
+        <v>20.42888731617283</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.99869409352494</v>
       </c>
       <c r="J8">
-        <v>19.15131000182751</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.14940567773428</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02804902972537</v>
+        <v>24.02717857089891</v>
       </c>
       <c r="C9">
-        <v>20.08046883213534</v>
+        <v>20.07372833725917</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.70410480051147</v>
+        <v>34.70318113172245</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>22.67360354159555</v>
+        <v>22.21056823053598</v>
       </c>
       <c r="H9">
-        <v>16.90160127043628</v>
+        <v>22.69857774205156</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.87784579815465</v>
       </c>
       <c r="J9">
-        <v>22.26718207717305</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.26437168401281</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.33656414164174</v>
+        <v>26.33518148728966</v>
       </c>
       <c r="C10">
-        <v>22.09675381821726</v>
+        <v>22.08891450036186</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.46675520564182</v>
+        <v>38.46527473557275</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.4848797809668</v>
+        <v>24.50521774285775</v>
       </c>
       <c r="H10">
-        <v>17.75293350587071</v>
+        <v>24.51173003263677</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.72624955039444</v>
       </c>
       <c r="J10">
-        <v>24.38661737003001</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.38309561815553</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.34842685967996</v>
+        <v>27.34678704227346</v>
       </c>
       <c r="C11">
-        <v>22.98754986556999</v>
+        <v>22.97919188706343</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.15031723923087</v>
+        <v>40.14853202378692</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>25.55798602959437</v>
+        <v>25.58722538416418</v>
       </c>
       <c r="H11">
-        <v>18.19144090286403</v>
+        <v>25.42925920550621</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.16347237137256</v>
       </c>
       <c r="J11">
-        <v>25.31837921158036</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.31451416610527</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.72654023823574</v>
+        <v>27.72479858289723</v>
       </c>
       <c r="C12">
-        <v>23.32160704572746</v>
+        <v>23.3130487022739</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.78531517932005</v>
+        <v>40.78340488490285</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>25.96920474106711</v>
+        <v>25.99894647081732</v>
       </c>
       <c r="H12">
-        <v>18.36553022031953</v>
+        <v>25.8183407028961</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.33708194604035</v>
       </c>
       <c r="J12">
-        <v>25.66700992796299</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.6630110009432</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64532365366431</v>
+        <v>27.64360414745042</v>
       </c>
       <c r="C13">
-        <v>23.24979765041226</v>
+        <v>23.24128265867767</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.6486421047416</v>
+        <v>40.64675922298006</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>25.88053986493005</v>
+        <v>25.91017311062221</v>
       </c>
       <c r="H13">
-        <v>18.32766793623037</v>
+        <v>25.73438820097996</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.29932269417603</v>
       </c>
       <c r="J13">
-        <v>25.59210511902508</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.58813521807956</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.37963296771809</v>
+        <v>27.37798486785585</v>
       </c>
       <c r="C14">
-        <v>23.01509504338167</v>
+        <v>23.00672066841144</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.2025998453132</v>
+        <v>40.20080454917332</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>25.59177276017881</v>
+        <v>25.62105331478853</v>
       </c>
       <c r="H14">
-        <v>18.20559812951367</v>
+        <v>25.46119969309092</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.1775899980756</v>
       </c>
       <c r="J14">
-        <v>25.34714271622478</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.34326674101914</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.21624585631604</v>
+        <v>27.21464088129502</v>
       </c>
       <c r="C15">
-        <v>22.87092480568552</v>
+        <v>22.86263600427471</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.92910666465056</v>
+        <v>39.92736367689434</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>25.41517699832533</v>
+        <v>25.44424237191044</v>
       </c>
       <c r="H15">
-        <v>18.13189473906603</v>
+        <v>25.29430922255381</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.10409395519349</v>
       </c>
       <c r="J15">
-        <v>25.19656302003284</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.19274403569635</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.2697026624227</v>
+        <v>26.26833624954683</v>
       </c>
       <c r="C16">
-        <v>22.03804977439327</v>
+        <v>22.03024387340102</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.35628734920549</v>
+        <v>38.35482558029732</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.4294307229458</v>
+        <v>24.43474153131053</v>
       </c>
       <c r="H16">
-        <v>17.72536223853904</v>
+        <v>24.45622038539454</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.69876319189473</v>
       </c>
       <c r="J16">
-        <v>24.32510949830358</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.32160970085189</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.67951773143854</v>
+        <v>25.67829085359874</v>
       </c>
       <c r="C17">
-        <v>21.52068937876038</v>
+        <v>21.51317410414653</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.38520070179055</v>
+        <v>37.38389685861921</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.9476172062812</v>
+        <v>23.81817727255113</v>
       </c>
       <c r="H17">
-        <v>17.48954068135541</v>
+        <v>23.97388767738992</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.46369113107209</v>
       </c>
       <c r="J17">
-        <v>23.78250214801511</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.77919244351235</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33642377901076</v>
+        <v>25.33527495436339</v>
       </c>
       <c r="C18">
-        <v>21.22059353265966</v>
+        <v>21.21324373939022</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.82390769061954</v>
+        <v>36.82269000938313</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.67387468974305</v>
+        <v>23.46433845857186</v>
       </c>
       <c r="H18">
-        <v>17.35868079555169</v>
+        <v>23.69985652443194</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.33326685736495</v>
       </c>
       <c r="J18">
-        <v>23.46732980994918</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.46412766353418</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21962124443178</v>
+        <v>25.21849849493017</v>
       </c>
       <c r="C19">
-        <v>21.11853810043702</v>
+        <v>21.11124408138709</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.63335012574983</v>
+        <v>36.63216087354357</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.58175633104513</v>
+        <v>23.34465305262173</v>
       </c>
       <c r="H19">
-        <v>17.31517550447135</v>
+        <v>23.60764216356905</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.28990982867625</v>
       </c>
       <c r="J19">
-        <v>23.36007668240412</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.35691067604543</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.74271714189581</v>
+        <v>25.74147564474148</v>
       </c>
       <c r="C20">
-        <v>21.57602093824343</v>
+        <v>21.56847490789162</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.48884914989124</v>
+        <v>37.48752899320144</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.99855317549713</v>
+        <v>23.88372518849463</v>
       </c>
       <c r="H20">
-        <v>17.5141451578159</v>
+        <v>24.02487788393625</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.48821535358281</v>
       </c>
       <c r="J20">
-        <v>23.84057929284304</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.83724954351314</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.45780603206026</v>
+        <v>27.45613708841261</v>
       </c>
       <c r="C21">
-        <v>23.08411684497697</v>
+        <v>23.07570128650297</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.33366834685325</v>
+        <v>40.33184760915444</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.67653024486317</v>
+        <v>25.7059142165469</v>
       </c>
       <c r="H21">
-        <v>18.24122911704979</v>
+        <v>25.54134752434602</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.21312179047856</v>
       </c>
       <c r="J21">
-        <v>25.41920429602206</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.41530084762405</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.5495095557783</v>
+        <v>28.54753462653772</v>
       </c>
       <c r="C22">
-        <v>24.05102093360473</v>
+        <v>24.04201317531913</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.1791197237462</v>
+        <v>42.17691377364869</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>26.87803943488829</v>
+        <v>26.9088974104846</v>
       </c>
       <c r="H22">
-        <v>18.76364459087082</v>
+        <v>26.68070133171312</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.73415263471594</v>
       </c>
       <c r="J22">
-        <v>26.42667768237006</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.42237595788962</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.96934884430146</v>
+        <v>27.96754005510892</v>
       </c>
       <c r="C23">
-        <v>23.53647609513991</v>
+        <v>23.52778709663579</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.1948447139481</v>
+        <v>41.19285062841215</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>26.23538073791861</v>
+        <v>26.26544863319131</v>
       </c>
       <c r="H23">
-        <v>18.48025411190429</v>
+        <v>26.0705652378707</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.4514978501997</v>
       </c>
       <c r="J23">
-        <v>25.89101739438712</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.88693079187565</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.71415652226011</v>
+        <v>25.71292164117914</v>
       </c>
       <c r="C24">
-        <v>21.55101385917408</v>
+        <v>21.54348173839621</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.4419991460004</v>
+        <v>37.44068637892506</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.9755149160615</v>
+        <v>23.85408905583356</v>
       </c>
       <c r="H24">
-        <v>17.5030068306802</v>
+        <v>24.00181507311595</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.47711329455899</v>
       </c>
       <c r="J24">
-        <v>23.81433267820076</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.81101199644732</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14135872774277</v>
+        <v>23.14066083767272</v>
       </c>
       <c r="C25">
-        <v>19.31147077972416</v>
+        <v>19.30512514982935</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.28504597845088</v>
+        <v>33.28429359259994</v>
       </c>
       <c r="F25">
         <v>33.19272459127055</v>
       </c>
       <c r="G25">
-        <v>22.03587610719482</v>
+        <v>21.41350348882996</v>
       </c>
       <c r="H25">
-        <v>16.6294405323271</v>
+        <v>22.06025517082619</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.60680370985111</v>
       </c>
       <c r="J25">
-        <v>21.45539423396064</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.45283414724941</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.1123629264641</v>
+        <v>18.98060475001657</v>
       </c>
       <c r="C2">
-        <v>17.55688842743104</v>
+        <v>12.44819140581484</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.08638692146167</v>
+        <v>10.20997353118793</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>64.15614139192624</v>
       </c>
       <c r="G2">
-        <v>19.69599979619534</v>
+        <v>2.101914547178779</v>
       </c>
       <c r="H2">
-        <v>20.72686389701519</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.09927558692453</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.57226313115223</v>
       </c>
       <c r="K2">
-        <v>19.60078802265058</v>
+        <v>16.45057159774351</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>8.612733054931924</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64837370199971</v>
+        <v>17.57198061885198</v>
       </c>
       <c r="C3">
-        <v>16.30324148433455</v>
+        <v>11.50246676399594</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.8162226117682</v>
+        <v>9.435546677872081</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>60.55314853220142</v>
       </c>
       <c r="G3">
-        <v>18.55392402964664</v>
+        <v>2.115746749897093</v>
       </c>
       <c r="H3">
-        <v>19.87880167593661</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.82793211343974</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.16161864404895</v>
       </c>
       <c r="K3">
-        <v>18.26814081692506</v>
+        <v>15.22358746763843</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>7.967823388704658</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.70380768205804</v>
+        <v>16.67079678542079</v>
       </c>
       <c r="C4">
-        <v>15.49775195495292</v>
+        <v>10.89786522673155</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.36687736793288</v>
+        <v>8.941732933401955</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>58.2912792380481</v>
       </c>
       <c r="G4">
-        <v>17.86359488358138</v>
+        <v>2.1243623517702</v>
       </c>
       <c r="H4">
-        <v>19.38455303447411</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.69364768594154</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.907495881346561</v>
       </c>
       <c r="K4">
-        <v>17.41022303958977</v>
+        <v>14.43716309677306</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>7.558749188604084</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30719587645905</v>
+        <v>16.29422286707977</v>
       </c>
       <c r="C5">
-        <v>15.16028399763906</v>
+        <v>10.64526219852188</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.76169662369357</v>
+        <v>8.735705317875084</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>57.35723327272459</v>
       </c>
       <c r="G5">
-        <v>17.58514057004393</v>
+        <v>2.127909349240193</v>
       </c>
       <c r="H5">
-        <v>19.18968661583082</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.64652742304046</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.803420039904045</v>
       </c>
       <c r="K5">
-        <v>17.05045677663684</v>
+        <v>14.10812973267099</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7.388549540695297</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24062678017856</v>
+        <v>16.23112400530601</v>
       </c>
       <c r="C6">
-        <v>15.10368409213971</v>
+        <v>10.60293621825476</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.66031055026548</v>
+        <v>8.70119980654149</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>57.2014008386571</v>
       </c>
       <c r="G6">
-        <v>17.53908108869995</v>
+        <v>2.128500647175233</v>
       </c>
       <c r="H6">
-        <v>19.1577213417036</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.63914674222944</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.786106767486716</v>
       </c>
       <c r="K6">
-        <v>16.99009948423815</v>
+        <v>14.05297028861201</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7.360071119050884</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.69850644594287</v>
+        <v>16.66575621742965</v>
       </c>
       <c r="C7">
-        <v>15.49323838940774</v>
+        <v>10.89448398673356</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.3587754143922</v>
+        <v>8.938974023529536</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>58.27873185814711</v>
       </c>
       <c r="G7">
-        <v>17.85982775873229</v>
+        <v>2.124410035229633</v>
       </c>
       <c r="H7">
-        <v>19.38189864135663</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.69298212688041</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.906094391235081</v>
       </c>
       <c r="K7">
-        <v>17.4054124586205</v>
+        <v>14.43276060230452</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7.55646823805129</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61692606739728</v>
+        <v>18.50230063641607</v>
       </c>
       <c r="C8">
-        <v>17.13190035118364</v>
+        <v>12.12693765495265</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.31475217283003</v>
+        <v>9.946631743095848</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>62.92415280938273</v>
       </c>
       <c r="G8">
-        <v>19.29999199210366</v>
+        <v>2.106661790098181</v>
       </c>
       <c r="H8">
-        <v>20.42888731617283</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15.99869409352494</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.43106720419264</v>
       </c>
       <c r="K8">
-        <v>19.14940567773428</v>
+        <v>16.0342093286357</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8.392955826044075</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02717857089891</v>
+        <v>21.82789559666725</v>
       </c>
       <c r="C9">
-        <v>20.07372833725917</v>
+        <v>14.36482576250914</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.70318113172245</v>
+        <v>11.78702927780991</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>71.64569526080875</v>
       </c>
       <c r="G9">
-        <v>22.21056823053598</v>
+        <v>2.072559239046105</v>
       </c>
       <c r="H9">
-        <v>22.69857774205156</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>16.87784579815465</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.44682660105565</v>
       </c>
       <c r="K9">
-        <v>22.26437168401281</v>
+        <v>18.92517789123351</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9.939981078635284</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.33518148728966</v>
+        <v>24.12387489684785</v>
       </c>
       <c r="C10">
-        <v>22.08891450036186</v>
+        <v>15.91777748205369</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.46527473557275</v>
+        <v>13.07213968291885</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>77.84404573903269</v>
       </c>
       <c r="G10">
-        <v>24.50521774285775</v>
+        <v>2.047489658356549</v>
       </c>
       <c r="H10">
-        <v>24.51173003263677</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>17.72624955039444</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.189636802162</v>
       </c>
       <c r="K10">
-        <v>24.38309561815553</v>
+        <v>20.9178143989342</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11.03697990458618</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.34678704227346</v>
+        <v>25.14235412873658</v>
       </c>
       <c r="C11">
-        <v>22.97919188706343</v>
+        <v>16.60938555985748</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.14853202378692</v>
+        <v>13.64647691319035</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>80.63028501370232</v>
       </c>
       <c r="G11">
-        <v>25.58722538416418</v>
+        <v>2.035959835457755</v>
       </c>
       <c r="H11">
-        <v>25.42925920550621</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>18.16347237137256</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.52857883019987</v>
       </c>
       <c r="K11">
-        <v>25.31451416610527</v>
+        <v>21.80144283861085</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11.53220272526577</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.72479858289723</v>
+        <v>25.52491135692231</v>
       </c>
       <c r="C12">
-        <v>23.3130487022739</v>
+        <v>16.86965307222388</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.78340488490285</v>
+        <v>13.862921841888</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>81.6820047041591</v>
       </c>
       <c r="G12">
-        <v>25.99894647081732</v>
+        <v>2.031563207532236</v>
       </c>
       <c r="H12">
-        <v>25.8183407028961</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.33708194604035</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.65728322573036</v>
       </c>
       <c r="K12">
-        <v>25.6630110009432</v>
+        <v>22.13334165060692</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11.71967411088235</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64360414745042</v>
+        <v>25.44264837899282</v>
       </c>
       <c r="C13">
-        <v>23.24128265867767</v>
+        <v>16.81366319231973</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.64675922298006</v>
+        <v>13.81634522498095</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>81.45562043384645</v>
       </c>
       <c r="G13">
-        <v>25.91017311062221</v>
+        <v>2.032511683004919</v>
       </c>
       <c r="H13">
-        <v>25.73438820097996</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.29932269417603</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.62954476887514</v>
       </c>
       <c r="K13">
-        <v>25.58813521807956</v>
+        <v>22.06197167127027</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11.67929258891759</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.37798486785585</v>
+        <v>25.17388587802303</v>
       </c>
       <c r="C14">
-        <v>23.00672066841144</v>
+        <v>16.63082734488993</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.20080454917332</v>
+        <v>13.6643021261087</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>80.71686839898416</v>
       </c>
       <c r="G14">
-        <v>25.62105331478853</v>
+        <v>2.035598814329339</v>
       </c>
       <c r="H14">
-        <v>25.46119969309092</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>18.1775899980756</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.53915893074615</v>
       </c>
       <c r="K14">
-        <v>25.34326674101914</v>
+        <v>21.82879905436376</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11.54762414530974</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.21464088129502</v>
+        <v>25.00887530356686</v>
       </c>
       <c r="C15">
-        <v>22.86263600427471</v>
+        <v>16.51863952256339</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.92736367689434</v>
+        <v>13.57104957299677</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>80.26397257162911</v>
       </c>
       <c r="G15">
-        <v>25.44424237191044</v>
+        <v>2.037485383482568</v>
       </c>
       <c r="H15">
-        <v>25.29430922255381</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>18.10409395519349</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.48384823469472</v>
       </c>
       <c r="K15">
-        <v>25.19274403569635</v>
+        <v>21.68563966199124</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11.46698189589936</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.26833624954683</v>
+        <v>24.05684221381835</v>
       </c>
       <c r="C16">
-        <v>22.03024387340102</v>
+        <v>15.87232166353382</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.35482558029732</v>
+        <v>13.03443397054377</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>77.66139946811231</v>
       </c>
       <c r="G16">
-        <v>24.43474153131053</v>
+        <v>2.048239619108985</v>
       </c>
       <c r="H16">
-        <v>24.45622038539454</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17.69876319189473</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.16752326615129</v>
       </c>
       <c r="K16">
-        <v>24.32160970085189</v>
+        <v>20.85965424615632</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11.0045790069738</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.67829085359874</v>
+        <v>23.46655040521695</v>
       </c>
       <c r="C17">
-        <v>21.51317410414653</v>
+        <v>15.47235632338881</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.38389685861921</v>
+        <v>12.70289172812833</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>76.05714114726533</v>
       </c>
       <c r="G17">
-        <v>23.81817727255113</v>
+        <v>2.054796671931653</v>
       </c>
       <c r="H17">
-        <v>23.97388767738992</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>17.46369113107209</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.97386216626299</v>
       </c>
       <c r="K17">
-        <v>23.77919244351235</v>
+        <v>20.34746596683036</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10.72025428248563</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33527495436339</v>
+        <v>23.12454221578011</v>
       </c>
       <c r="C18">
-        <v>21.21324373939022</v>
+        <v>15.2408751312716</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.82269000938313</v>
+        <v>12.5112011169022</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>75.13115958531097</v>
       </c>
       <c r="G18">
-        <v>23.46433845857186</v>
+        <v>2.058557168343206</v>
       </c>
       <c r="H18">
-        <v>23.69985652443194</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>17.33326685736495</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.86255540354951</v>
       </c>
       <c r="K18">
-        <v>23.46412766353418</v>
+        <v>20.05068014970622</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10.55632575613416</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.21849849493017</v>
+        <v>23.00829992949983</v>
       </c>
       <c r="C19">
-        <v>21.11124408138709</v>
+        <v>15.16223981590526</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.63216087354357</v>
+        <v>12.44611494368976</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>74.81704193893727</v>
       </c>
       <c r="G19">
-        <v>23.34465305262173</v>
+        <v>2.05982887082135</v>
       </c>
       <c r="H19">
-        <v>23.60764216356905</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>17.28990982867625</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.82487755107902</v>
       </c>
       <c r="K19">
-        <v>23.35691067604543</v>
+        <v>19.9498019068602</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10.50074153933482</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.74147564474148</v>
+        <v>23.52964138308706</v>
       </c>
       <c r="C20">
-        <v>21.56847490789162</v>
+        <v>15.51507813951675</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.48752899320144</v>
+        <v>12.73828519707282</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>76.22824491412689</v>
       </c>
       <c r="G20">
-        <v>23.88372518849463</v>
+        <v>2.054099878432674</v>
       </c>
       <c r="H20">
-        <v>24.02487788393625</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>17.48821535358281</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.99446792364915</v>
       </c>
       <c r="K20">
-        <v>23.83724954351314</v>
+        <v>20.40221199265358</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10.75055850510624</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.45613708841261</v>
+        <v>25.2529070584185</v>
       </c>
       <c r="C21">
-        <v>23.07570128650297</v>
+        <v>16.68457038392114</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.33184760915444</v>
+        <v>13.70898535566188</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>80.93393564769329</v>
       </c>
       <c r="G21">
-        <v>25.7059142165469</v>
+        <v>2.03469298925415</v>
       </c>
       <c r="H21">
-        <v>25.54134752434602</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>18.21312179047856</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.56569589664814</v>
       </c>
       <c r="K21">
-        <v>25.41530084762405</v>
+        <v>21.89735602481612</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11.58629558186379</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.54753462653772</v>
+        <v>26.36136294473092</v>
       </c>
       <c r="C22">
-        <v>24.04201317531913</v>
+        <v>17.43971298563758</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.17691377364869</v>
+        <v>14.33757199219155</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>83.99072867128957</v>
       </c>
       <c r="G22">
-        <v>26.9088974104846</v>
+        <v>2.021823821109226</v>
       </c>
       <c r="H22">
-        <v>26.68070133171312</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.73415263471594</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.94123188146764</v>
       </c>
       <c r="K22">
-        <v>26.42237595788962</v>
+        <v>22.85905879721142</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>12.13245653841471</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.96754005510892</v>
+        <v>25.77115043950789</v>
       </c>
       <c r="C23">
-        <v>23.52778709663579</v>
+        <v>17.0373264967089</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.19285062841215</v>
+        <v>14.00245094934601</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>82.36037768952956</v>
       </c>
       <c r="G23">
-        <v>26.26544863319131</v>
+        <v>2.028714113951979</v>
       </c>
       <c r="H23">
-        <v>26.0705652378707</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.4514978501997</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.74051572382021</v>
       </c>
       <c r="K23">
-        <v>25.88693079187565</v>
+        <v>22.34697644174612</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>11.84077619569769</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.71292164117914</v>
+        <v>23.5011262245162</v>
       </c>
       <c r="C24">
-        <v>21.54348173839621</v>
+        <v>15.4957684265682</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.44068637892506</v>
+        <v>12.72228721284691</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>76.15090044131864</v>
       </c>
       <c r="G24">
-        <v>23.85408905583356</v>
+        <v>2.054414926653521</v>
       </c>
       <c r="H24">
-        <v>24.00181507311595</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17.47711329455899</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.98515197688842</v>
       </c>
       <c r="K24">
-        <v>23.81101199644732</v>
+        <v>20.37746858816305</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>10.73685945438582</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14066083767272</v>
+        <v>20.95585334467732</v>
       </c>
       <c r="C25">
-        <v>19.30512514982935</v>
+        <v>13.77690011596394</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.28429359259994</v>
+        <v>11.30219335188764</v>
       </c>
       <c r="F25">
-        <v>33.19272459127055</v>
+        <v>69.32603424450176</v>
       </c>
       <c r="G25">
-        <v>21.41350348882996</v>
+        <v>2.081751321556673</v>
       </c>
       <c r="H25">
-        <v>22.06025517082619</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.60680370985111</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.1731130988252</v>
       </c>
       <c r="K25">
-        <v>21.45283414724941</v>
+        <v>18.16784549165768</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>9.529835893068359</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98060475001657</v>
+        <v>21.04694075123177</v>
       </c>
       <c r="C2">
-        <v>12.44819140581484</v>
+        <v>17.96095778195818</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.20997353118793</v>
+        <v>6.254419504360191</v>
       </c>
       <c r="F2">
-        <v>64.15614139192624</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.101914547178779</v>
+        <v>2.113528279342031</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>37.19073369041966</v>
       </c>
       <c r="J2">
-        <v>10.57226313115223</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.45057159774351</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.718196830292704</v>
       </c>
       <c r="M2">
-        <v>8.612733054931924</v>
+        <v>12.96591695909829</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.57198061885198</v>
+        <v>19.67761322358471</v>
       </c>
       <c r="C3">
-        <v>11.50246676399594</v>
+        <v>16.63144843490019</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.435546677872081</v>
+        <v>6.129299263391406</v>
       </c>
       <c r="F3">
-        <v>60.55314853220142</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.115746749897093</v>
+        <v>2.127197515519625</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>35.75171105183952</v>
       </c>
       <c r="J3">
-        <v>10.16161864404895</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.22358746763843</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.623983419621878</v>
       </c>
       <c r="M3">
-        <v>7.967823388704658</v>
+        <v>12.46147821301535</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.67079678542079</v>
+        <v>18.83117384926899</v>
       </c>
       <c r="C4">
-        <v>10.89786522673155</v>
+        <v>15.77882898632861</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.941732933401955</v>
+        <v>6.052506014570422</v>
       </c>
       <c r="F4">
-        <v>58.2912792380481</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.1243623517702</v>
+        <v>2.13572824962431</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>34.87031148341591</v>
       </c>
       <c r="J4">
-        <v>9.907495881346561</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.43716309677306</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.5698020125067</v>
       </c>
       <c r="M4">
-        <v>7.558749188604084</v>
+        <v>12.1545000662502</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.29422286707977</v>
+        <v>18.48050637109249</v>
       </c>
       <c r="C5">
-        <v>10.64526219852188</v>
+        <v>15.42201431050404</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.735705317875084</v>
+        <v>6.021179365928527</v>
       </c>
       <c r="F5">
-        <v>57.35723327272459</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.127909349240193</v>
+        <v>2.139243877638835</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>34.51176082224796</v>
       </c>
       <c r="J5">
-        <v>9.803420039904045</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.10812973267099</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.548619487688582</v>
       </c>
       <c r="M5">
-        <v>7.388549540695297</v>
+        <v>12.03019537591382</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.23112400530601</v>
+        <v>18.42193799321542</v>
       </c>
       <c r="C6">
-        <v>10.60293621825476</v>
+        <v>15.36219338769941</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.70119980654149</v>
+        <v>6.015974535999545</v>
       </c>
       <c r="F6">
-        <v>57.2014008386571</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.128500647175233</v>
+        <v>2.13983014497411</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>34.45226503202296</v>
       </c>
       <c r="J6">
-        <v>9.786106767486716</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.05297028861201</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.545155601582854</v>
       </c>
       <c r="M6">
-        <v>7.360071119050884</v>
+        <v>12.00960581031105</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.66575621742965</v>
+        <v>18.82646758794066</v>
       </c>
       <c r="C7">
-        <v>10.89448398673356</v>
+        <v>15.77405507526885</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.938974023529536</v>
+        <v>6.052083714852211</v>
       </c>
       <c r="F7">
-        <v>58.27873185814711</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.124410035229633</v>
+        <v>2.13577549773818</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>34.86547325838395</v>
       </c>
       <c r="J7">
-        <v>9.906094391235081</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.43276060230452</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.569512738521705</v>
       </c>
       <c r="M7">
-        <v>7.55646823805129</v>
+        <v>12.15282029738102</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.50230063641607</v>
+        <v>20.56079018478328</v>
       </c>
       <c r="C8">
-        <v>12.12693765495265</v>
+        <v>17.50992388062476</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.946631743095848</v>
+        <v>6.211245336201327</v>
       </c>
       <c r="F8">
-        <v>62.92415280938273</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.106661790098181</v>
+        <v>2.118215780522483</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>36.69414021582769</v>
       </c>
       <c r="J8">
-        <v>10.43106720419264</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.0342093286357</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.684935652975741</v>
       </c>
       <c r="M8">
-        <v>8.392955826044075</v>
+        <v>12.7914686248975</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.82789559666725</v>
+        <v>24.1018870571848</v>
       </c>
       <c r="C9">
-        <v>14.36482576250914</v>
+        <v>20.6382866380033</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.78702927780991</v>
+        <v>6.52578873504491</v>
       </c>
       <c r="F9">
-        <v>71.64569526080875</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>2.072559239046105</v>
+        <v>2.08463725382992</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>40.29729383210522</v>
       </c>
       <c r="J9">
-        <v>11.44682660105565</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.92517789123351</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.941606717549829</v>
       </c>
       <c r="M9">
-        <v>9.939981078635284</v>
+        <v>14.06267704668922</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.12387489684785</v>
+        <v>26.55610162681392</v>
       </c>
       <c r="C10">
-        <v>15.91777748205369</v>
+        <v>22.78852256586098</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.07213968291885</v>
+        <v>6.762064739143778</v>
       </c>
       <c r="F10">
-        <v>77.84404573903269</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.047489658356549</v>
+        <v>2.060107225102305</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.96140736910882</v>
       </c>
       <c r="J10">
-        <v>12.189636802162</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.9178143989342</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.150667807766924</v>
       </c>
       <c r="M10">
-        <v>11.03697990458618</v>
+        <v>15.30683011377319</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.14235412873658</v>
+        <v>27.64103094519584</v>
       </c>
       <c r="C11">
-        <v>16.60938555985748</v>
+        <v>23.73989902598574</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.64647691319035</v>
+        <v>6.871737717273227</v>
       </c>
       <c r="F11">
-        <v>80.63028501370232</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.035959835457755</v>
+        <v>2.048875261454707</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>44.18058673121671</v>
       </c>
       <c r="J11">
-        <v>12.52857883019987</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.80144283861085</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.250774790781437</v>
       </c>
       <c r="M11">
-        <v>11.53220272526577</v>
+        <v>15.92611992610917</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.52491135692231</v>
+        <v>28.04784809760355</v>
       </c>
       <c r="C12">
-        <v>16.86965307222388</v>
+        <v>24.0968461875831</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.862921841888</v>
+        <v>6.91369430100683</v>
       </c>
       <c r="F12">
-        <v>81.6820047041591</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>2.031563207532236</v>
+        <v>2.044601111293308</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.6437676953998</v>
       </c>
       <c r="J12">
-        <v>12.65728322573036</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.13334165060692</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.289459566102198</v>
       </c>
       <c r="M12">
-        <v>11.71967411088235</v>
+        <v>16.15801655665477</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.44264837899282</v>
+        <v>27.96040244134723</v>
       </c>
       <c r="C13">
-        <v>16.81366319231973</v>
+        <v>24.02010935791846</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.81634522498095</v>
+        <v>6.904637245082331</v>
       </c>
       <c r="F13">
-        <v>81.45562043384645</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.032511683004919</v>
+        <v>2.045522737449818</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>44.54393743969518</v>
       </c>
       <c r="J13">
-        <v>12.62954476887514</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.06197167127027</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.281092537136479</v>
       </c>
       <c r="M13">
-        <v>11.67929258891759</v>
+        <v>16.10818439629208</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.17388587802303</v>
+        <v>27.67457737224767</v>
       </c>
       <c r="C14">
-        <v>16.63082734488993</v>
+        <v>23.76932841638671</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.6643021261087</v>
+        <v>6.875180258694124</v>
       </c>
       <c r="F14">
-        <v>80.71686839898416</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.035598814329339</v>
+        <v>2.048524108071643</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>44.21865955596429</v>
       </c>
       <c r="J14">
-        <v>12.53915893074615</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.82879905436376</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.253941480091703</v>
       </c>
       <c r="M14">
-        <v>11.54762414530974</v>
+        <v>15.94524869213846</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.00887530356686</v>
+        <v>27.4989942792683</v>
       </c>
       <c r="C15">
-        <v>16.51863952256339</v>
+        <v>23.61530302880903</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.57104957299677</v>
+        <v>6.857196141574875</v>
       </c>
       <c r="F15">
-        <v>80.26397257162911</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.037485383482568</v>
+        <v>2.05035948159169</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>44.01962971901016</v>
       </c>
       <c r="J15">
-        <v>12.48384823469472</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.68563966199124</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.237413683664847</v>
       </c>
       <c r="M15">
-        <v>11.46698189589936</v>
+        <v>15.8451151799155</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.05684221381835</v>
+        <v>26.48460620701939</v>
       </c>
       <c r="C16">
-        <v>15.87232166353382</v>
+        <v>22.72585253078697</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.03443397054377</v>
+        <v>6.754950390402681</v>
       </c>
       <c r="F16">
-        <v>77.66139946811231</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.048239619108985</v>
+        <v>2.060838945248724</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.8819130357433</v>
       </c>
       <c r="J16">
-        <v>12.16752326615129</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.85965424615632</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.144230868011834</v>
       </c>
       <c r="M16">
-        <v>11.0045790069738</v>
+        <v>15.26597450121663</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.46655040521695</v>
+        <v>25.85457418573689</v>
       </c>
       <c r="C17">
-        <v>15.47235632338881</v>
+        <v>22.17369670760046</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.70289172812833</v>
+        <v>6.692858864063009</v>
       </c>
       <c r="F17">
-        <v>76.05714114726533</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.054796671931653</v>
+        <v>2.067242211650697</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>42.18609973783244</v>
       </c>
       <c r="J17">
-        <v>11.97386216626299</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.34746596683036</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.08838474177541</v>
       </c>
       <c r="M17">
-        <v>10.72025428248563</v>
+        <v>14.9056929635455</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.12454221578011</v>
+        <v>25.48919516253943</v>
       </c>
       <c r="C18">
-        <v>15.2408751312716</v>
+        <v>21.85355436009959</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.5112011169022</v>
+        <v>6.657343749556621</v>
       </c>
       <c r="F18">
-        <v>75.13115958531097</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.058557168343206</v>
+        <v>2.070919029883949</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>41.78653356654628</v>
       </c>
       <c r="J18">
-        <v>11.86255540354951</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.05068014970622</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.05673051520461</v>
       </c>
       <c r="M18">
-        <v>10.55632575613416</v>
+        <v>14.69653705306169</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.00829992949983</v>
+        <v>25.36495471528727</v>
       </c>
       <c r="C19">
-        <v>15.16223981590526</v>
+        <v>21.74470571080846</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.44611494368976</v>
+        <v>6.645349975861397</v>
       </c>
       <c r="F19">
-        <v>74.81704193893727</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.05982887082135</v>
+        <v>2.072163164308385</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>41.65134696392814</v>
       </c>
       <c r="J19">
-        <v>11.82487755107902</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.9498019068602</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.046091598840213</v>
       </c>
       <c r="M19">
-        <v>10.50074153933482</v>
+        <v>14.62538020587752</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.52964138308706</v>
+        <v>25.92194941875419</v>
       </c>
       <c r="C20">
-        <v>15.51507813951675</v>
+        <v>22.2327356966365</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.73828519707282</v>
+        <v>6.69944735856525</v>
       </c>
       <c r="F20">
-        <v>76.22824491412689</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.054099878432674</v>
+        <v>2.066561280990819</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>42.26010042584512</v>
       </c>
       <c r="J20">
-        <v>11.99446792364915</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.40221199265358</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.094280951406192</v>
       </c>
       <c r="M20">
-        <v>10.75055850510624</v>
+        <v>14.94424339802192</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.2529070584185</v>
+        <v>27.75863572605147</v>
       </c>
       <c r="C21">
-        <v>16.68457038392114</v>
+        <v>23.84307422410126</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.70898535566188</v>
+        <v>6.883819933882409</v>
       </c>
       <c r="F21">
-        <v>80.93393564769329</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.03469298925415</v>
+        <v>2.047643190002449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>44.31415626987271</v>
       </c>
       <c r="J21">
-        <v>12.56569589664814</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.89735602481612</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.261894817202035</v>
       </c>
       <c r="M21">
-        <v>11.58629558186379</v>
+        <v>15.9931751594821</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.36136294473092</v>
+        <v>28.93588548613785</v>
       </c>
       <c r="C22">
-        <v>17.43971298563758</v>
+        <v>24.87649823864407</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.33757199219155</v>
+        <v>7.006869346734932</v>
       </c>
       <c r="F22">
-        <v>83.99072867128957</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.021823821109226</v>
+        <v>2.035151408052222</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.66570241001034</v>
       </c>
       <c r="J22">
-        <v>12.94123188146764</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.85905879721142</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.376001737319438</v>
       </c>
       <c r="M22">
-        <v>12.13245653841471</v>
+        <v>16.66364943562816</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.77115043950789</v>
+        <v>28.30948626264859</v>
       </c>
       <c r="C23">
-        <v>17.0373264967089</v>
+        <v>24.326480425086</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.00245094934601</v>
+        <v>6.94091912030418</v>
       </c>
       <c r="F23">
-        <v>82.36037768952956</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.028714113951979</v>
+        <v>2.041834103382039</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>44.94332877351803</v>
       </c>
       <c r="J23">
-        <v>12.74051572382021</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>22.34697644174612</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.314661178560003</v>
       </c>
       <c r="M23">
-        <v>11.84077619569769</v>
+        <v>16.30706908306164</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.5011262245162</v>
+        <v>25.89149897182626</v>
       </c>
       <c r="C24">
-        <v>15.4957684265682</v>
+        <v>22.20605262023617</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.72228721284691</v>
+        <v>6.696468140890889</v>
       </c>
       <c r="F24">
-        <v>76.15090044131864</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.054414926653521</v>
+        <v>2.066869143021826</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>42.22664329538906</v>
       </c>
       <c r="J24">
-        <v>11.98515197688842</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.37746858816305</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.091613869849657</v>
       </c>
       <c r="M24">
-        <v>10.73685945438582</v>
+        <v>14.92682107704797</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.95585334467732</v>
+        <v>23.16729204871721</v>
       </c>
       <c r="C25">
-        <v>13.77690011596394</v>
+        <v>19.81960999427215</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.30219335188764</v>
+        <v>6.440094883015803</v>
       </c>
       <c r="F25">
-        <v>69.32603424450176</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.081751321556673</v>
+        <v>2.093665659586086</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>39.3203900493904</v>
       </c>
       <c r="J25">
-        <v>11.1731130988252</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.16784549165768</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.868734737612852</v>
       </c>
       <c r="M25">
-        <v>9.529835893068359</v>
+        <v>13.71705642521659</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04694075123177</v>
+        <v>20.09260899626369</v>
       </c>
       <c r="C2">
-        <v>17.96095778195818</v>
+        <v>11.01616173040622</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.254419504360191</v>
+        <v>8.830109479115711</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.113528279342031</v>
+        <v>3.735465500740413</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.19073369041966</v>
+        <v>37.6181221768755</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.718196830292704</v>
+        <v>10.49362093115385</v>
       </c>
       <c r="M2">
-        <v>12.96591695909829</v>
+        <v>17.61542889731175</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67761322358471</v>
+        <v>19.83923396387046</v>
       </c>
       <c r="C3">
-        <v>16.63144843490019</v>
+        <v>10.49671138968456</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.129299263391406</v>
+        <v>8.799417286426046</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.127197515519625</v>
+        <v>3.739965927723149</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.75171105183952</v>
+        <v>37.27220863289495</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.623983419621878</v>
+        <v>10.50252392224762</v>
       </c>
       <c r="M3">
-        <v>12.46147821301535</v>
+        <v>17.58909749825791</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83117384926899</v>
+        <v>19.68955781947197</v>
       </c>
       <c r="C4">
-        <v>15.77882898632861</v>
+        <v>10.16803367322684</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.052506014570422</v>
+        <v>8.780070512100735</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.13572824962431</v>
+        <v>3.742867962003373</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.87031148341591</v>
+        <v>37.06322622980638</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.5698020125067</v>
+        <v>10.50956765205805</v>
       </c>
       <c r="M4">
-        <v>12.1545000662502</v>
+        <v>17.57734507447164</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48050637109249</v>
+        <v>19.63012639586855</v>
       </c>
       <c r="C5">
-        <v>15.42201431050404</v>
+        <v>10.03185764914283</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.021179365928527</v>
+        <v>8.77206012604975</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.139243877638835</v>
+        <v>3.744085604945199</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.51176082224796</v>
+        <v>36.97896853196848</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.548619487688582</v>
+        <v>10.51283440494702</v>
       </c>
       <c r="M5">
-        <v>12.03019537591382</v>
+        <v>17.57366902273553</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42193799321542</v>
+        <v>19.62035450758301</v>
       </c>
       <c r="C6">
-        <v>15.36219338769941</v>
+        <v>10.00911732876797</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.015974535999545</v>
+        <v>8.770722364079907</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.13983014497411</v>
+        <v>3.744289914367977</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.45226503202296</v>
+        <v>36.96503354642433</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.545155601582854</v>
+        <v>10.51340077842698</v>
       </c>
       <c r="M6">
-        <v>12.00960581031105</v>
+        <v>17.57312591656699</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82646758794066</v>
+        <v>19.68874987574315</v>
       </c>
       <c r="C7">
-        <v>15.77405507526885</v>
+        <v>10.166205914505</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.052083714852211</v>
+        <v>8.779962993470464</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323728</v>
       </c>
       <c r="G7">
-        <v>2.13577549773818</v>
+        <v>3.742884241484834</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.86547325838395</v>
+        <v>37.06208617929367</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.569512738521705</v>
+        <v>10.50961010407838</v>
       </c>
       <c r="M7">
-        <v>12.15282029738102</v>
+        <v>17.57729098760325</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56079018478328</v>
+        <v>20.00407035906811</v>
       </c>
       <c r="C8">
-        <v>17.50992388062476</v>
+        <v>10.83919259636087</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.211245336201327</v>
+        <v>8.819630756316489</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344769</v>
       </c>
       <c r="G8">
-        <v>2.118215780522483</v>
+        <v>3.736988539912854</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.69414021582769</v>
+        <v>37.4981722764414</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.684935652975741</v>
+        <v>10.49636319924594</v>
       </c>
       <c r="M8">
-        <v>12.7914686248975</v>
+        <v>17.60543548958041</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.1018870571848</v>
+        <v>20.66553261144694</v>
       </c>
       <c r="C9">
-        <v>20.6382866380033</v>
+        <v>12.07387022820516</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.52578873504491</v>
+        <v>8.893453436283853</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>2.08463725382992</v>
+        <v>3.726521200743181</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>40.29729383210522</v>
+        <v>38.37823640381075</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.941606717549829</v>
+        <v>10.48290983844246</v>
       </c>
       <c r="M9">
-        <v>14.06267704668922</v>
+        <v>17.69549182920973</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.55610162681392</v>
+        <v>21.1727189650717</v>
       </c>
       <c r="C10">
-        <v>22.78852256586098</v>
+        <v>12.92044394064993</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.762064739143778</v>
+        <v>8.945296887830215</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.060107225102305</v>
+        <v>3.719488260937742</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.96140736910882</v>
+        <v>39.03699851607502</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.150667807766924</v>
+        <v>10.48067020368067</v>
       </c>
       <c r="M10">
-        <v>15.30683011377319</v>
+        <v>17.78263097808993</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64103094519584</v>
+        <v>21.40695567827485</v>
       </c>
       <c r="C11">
-        <v>23.73989902598574</v>
+        <v>13.29103059163995</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.871737717273227</v>
+        <v>8.968367180049718</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.048875261454707</v>
+        <v>3.716429488221879</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.18058673121671</v>
+        <v>39.33866255763698</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.250774790781437</v>
+        <v>10.48131177952981</v>
       </c>
       <c r="M11">
-        <v>15.92611992610917</v>
+        <v>17.82674875433409</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.04784809760355</v>
+        <v>21.49606866397237</v>
       </c>
       <c r="C12">
-        <v>24.0968461875831</v>
+        <v>13.42918181533485</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.91369430100683</v>
+        <v>8.97702978409643</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.044601111293308</v>
+        <v>3.715291261578985</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.6437676953998</v>
+        <v>39.45312291267609</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.289459566102198</v>
+        <v>10.48179334059945</v>
       </c>
       <c r="M12">
-        <v>16.15801655665477</v>
+        <v>17.84409077027777</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96040244134723</v>
+        <v>21.47685970152366</v>
       </c>
       <c r="C13">
-        <v>24.02010935791846</v>
+        <v>13.39952683878168</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.904637245082331</v>
+        <v>8.975167407634901</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.045522737449818</v>
+        <v>3.715535509018491</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.54393743969518</v>
+        <v>39.42846269454414</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.281092537136479</v>
+        <v>10.48167901895526</v>
       </c>
       <c r="M13">
-        <v>16.10818439629208</v>
+        <v>17.84032773133115</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67457737224767</v>
+        <v>21.4142793150904</v>
       </c>
       <c r="C14">
-        <v>23.76932841638671</v>
+        <v>13.3024405835158</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.875180258694124</v>
+        <v>8.96908133170114</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.048524108071643</v>
+        <v>3.716335444352195</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.21865955596429</v>
+        <v>39.34807507802368</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.253941480091703</v>
+        <v>10.48134661694406</v>
       </c>
       <c r="M14">
-        <v>15.94524869213846</v>
+        <v>17.82816280537411</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.4989942792683</v>
+        <v>21.37599802224105</v>
       </c>
       <c r="C15">
-        <v>23.61530302880903</v>
+        <v>13.24268579929005</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.857196141574875</v>
+        <v>8.965343854602891</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.05035948159169</v>
+        <v>3.716828036452432</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>44.01962971901016</v>
+        <v>39.29886309657738</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.237413683664847</v>
+        <v>10.48117407911757</v>
       </c>
       <c r="M15">
-        <v>15.8451151799155</v>
+        <v>17.82079394533515</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.48460620701939</v>
+        <v>21.15747381673244</v>
       </c>
       <c r="C16">
-        <v>22.72585253078697</v>
+        <v>12.89592462467951</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.754950390402681</v>
+        <v>8.94377887587363</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.060838945248724</v>
+        <v>3.719690974585222</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.8819130357433</v>
+        <v>39.01731903694032</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.144230868011834</v>
+        <v>10.48066167563323</v>
       </c>
       <c r="M16">
-        <v>15.26597450121663</v>
+        <v>17.77983718978147</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.85457418573689</v>
+        <v>21.02425022148241</v>
       </c>
       <c r="C17">
-        <v>22.17369670760046</v>
+        <v>12.67940634493011</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.692858864063009</v>
+        <v>8.930418091979146</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.067242211650697</v>
+        <v>3.721483187721321</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>42.18609973783244</v>
+        <v>38.84506844783681</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.08838474177541</v>
+        <v>10.48077252025998</v>
       </c>
       <c r="M17">
-        <v>14.9056929635455</v>
+        <v>17.75585276078988</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.48919516253943</v>
+        <v>20.94795990265688</v>
       </c>
       <c r="C18">
-        <v>21.85355436009959</v>
+        <v>12.55350817412092</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.657343749556621</v>
+        <v>8.922684970262138</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.070919029883949</v>
+        <v>3.722527258994921</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>41.78653356654628</v>
+        <v>38.74618536196975</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.05673051520461</v>
+        <v>10.48099257451826</v>
       </c>
       <c r="M18">
-        <v>14.69653705306169</v>
+        <v>17.74247957243249</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.36495471528727</v>
+        <v>20.9221899291199</v>
       </c>
       <c r="C19">
-        <v>21.74470571080846</v>
+        <v>12.51065030111818</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.645349975861397</v>
+        <v>8.920058356530458</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.072163164308385</v>
+        <v>3.722883041628049</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>41.65134696392814</v>
+        <v>38.71273983535781</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.046091598840213</v>
+        <v>10.48109392882726</v>
       </c>
       <c r="M19">
-        <v>14.62538020587752</v>
+        <v>17.73802436228596</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.92194941875419</v>
+        <v>21.03839796373638</v>
       </c>
       <c r="C20">
-        <v>22.2327356966365</v>
+        <v>12.70259683444312</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.69944735856525</v>
+        <v>8.93184537281436</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>2.066561280990819</v>
+        <v>3.721291034583776</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>42.26010042584512</v>
+        <v>38.86338548857049</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.094280951406192</v>
+        <v>10.48074454509242</v>
       </c>
       <c r="M20">
-        <v>14.94424339802192</v>
+        <v>17.75836232417328</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.75863572605147</v>
+        <v>21.43265022689819</v>
       </c>
       <c r="C21">
-        <v>23.84307422410126</v>
+        <v>13.33101705256678</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.883819933882409</v>
+        <v>8.970870955749662</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>2.047643190002449</v>
+        <v>3.716099940582411</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.31415626987271</v>
+        <v>39.37168119219635</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.261894817202035</v>
+        <v>10.48143777732869</v>
       </c>
       <c r="M21">
-        <v>15.9931751594821</v>
+        <v>17.831718760393</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.93588548613785</v>
+        <v>21.69267990249081</v>
       </c>
       <c r="C22">
-        <v>24.87649823864407</v>
+        <v>13.72897554938069</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.006869346734932</v>
+        <v>8.995947456493916</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>2.035151408052222</v>
+        <v>3.712824142238319</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.66570241001034</v>
+        <v>39.70517552857493</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.376001737319438</v>
+        <v>10.48328151233076</v>
       </c>
       <c r="M22">
-        <v>16.66364943562816</v>
+        <v>17.88336156526955</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30948626264859</v>
+        <v>21.55371128107053</v>
       </c>
       <c r="C23">
-        <v>24.326480425086</v>
+        <v>13.51777116291065</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.94091912030418</v>
+        <v>8.98260282941337</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>2.041834103382039</v>
+        <v>3.714561851093781</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.94332877351803</v>
+        <v>39.52708469132782</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.314661178560003</v>
+        <v>10.48217030409874</v>
       </c>
       <c r="M23">
-        <v>16.30706908306164</v>
+        <v>17.85546323729773</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.89149897182626</v>
+        <v>21.03200082267778</v>
       </c>
       <c r="C24">
-        <v>22.20605262023617</v>
+        <v>12.69211682653014</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.696468140890889</v>
+        <v>8.931200260602257</v>
       </c>
       <c r="F24">
-        <v>36.85121910575438</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>2.066869143021826</v>
+        <v>3.721377864321424</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>42.22664329538906</v>
+        <v>38.85510389497359</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.091613869849657</v>
+        <v>10.48075670572753</v>
       </c>
       <c r="M24">
-        <v>14.92682107704797</v>
+        <v>17.75722645488716</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.16729204871721</v>
+        <v>20.48249178538151</v>
       </c>
       <c r="C25">
-        <v>19.81960999427215</v>
+        <v>11.74994990126773</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.440094883015803</v>
+        <v>8.873904561889107</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.093665659586086</v>
+        <v>3.729236752506505</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.3203900493904</v>
+        <v>38.137793264595</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.868734737612852</v>
+        <v>10.48520723212248</v>
       </c>
       <c r="M25">
-        <v>13.71705642521659</v>
+        <v>17.66742187987323</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.09260899626369</v>
+        <v>21.04694075123172</v>
       </c>
       <c r="C2">
-        <v>11.01616173040622</v>
+        <v>17.96095778195819</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.830109479115711</v>
+        <v>6.254419504360328</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.735465500740413</v>
+        <v>2.113528279342037</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.6181221768755</v>
+        <v>37.19073369041993</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.49362093115385</v>
+        <v>6.718196830292748</v>
       </c>
       <c r="M2">
-        <v>17.61542889731175</v>
+        <v>12.96591695909832</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.83923396387046</v>
+        <v>19.67761322358472</v>
       </c>
       <c r="C3">
-        <v>10.49671138968456</v>
+        <v>16.63144843490007</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.799417286426046</v>
+        <v>6.12929926339141</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.739965927723149</v>
+        <v>2.127197515519487</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.27220863289495</v>
+        <v>35.75171105183966</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.50252392224762</v>
+        <v>6.623983419621961</v>
       </c>
       <c r="M3">
-        <v>17.58909749825791</v>
+        <v>12.46147821301536</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.68955781947197</v>
+        <v>18.83117384926904</v>
       </c>
       <c r="C4">
-        <v>10.16803367322684</v>
+        <v>15.77882898632862</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.780070512100735</v>
+        <v>6.05250601457049</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.742867962003373</v>
+        <v>2.135728249624443</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37.06322622980638</v>
+        <v>34.87031148341595</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.50956765205805</v>
+        <v>6.569802012506765</v>
       </c>
       <c r="M4">
-        <v>17.57734507447164</v>
+        <v>12.15450006625031</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.63012639586855</v>
+        <v>18.48050637109251</v>
       </c>
       <c r="C5">
-        <v>10.03185764914283</v>
+        <v>15.42201431050396</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.77206012604975</v>
+        <v>6.02117936592859</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.744085604945199</v>
+        <v>2.139243877639236</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.97896853196848</v>
+        <v>34.51176082224816</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.51283440494702</v>
+        <v>6.54861948768871</v>
       </c>
       <c r="M5">
-        <v>17.57366902273553</v>
+        <v>12.03019537591389</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.62035450758301</v>
+        <v>18.42193799321542</v>
       </c>
       <c r="C6">
-        <v>10.00911732876797</v>
+        <v>15.36219338769936</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.770722364079907</v>
+        <v>6.015974535999741</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.744289914367977</v>
+        <v>2.139830144974114</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.96503354642433</v>
+        <v>34.45226503202306</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.51340077842698</v>
+        <v>6.545155601582913</v>
       </c>
       <c r="M6">
-        <v>17.57312591656699</v>
+        <v>12.00960581031105</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.68874987574315</v>
+        <v>18.82646758794063</v>
       </c>
       <c r="C7">
-        <v>10.166205914505</v>
+        <v>15.77405507526879</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.779962993470464</v>
+        <v>6.052083714852206</v>
       </c>
       <c r="F7">
-        <v>15.26647399323728</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.742884241484834</v>
+        <v>2.135775497737924</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.06208617929367</v>
+        <v>34.86547325838406</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.50961010407838</v>
+        <v>6.569512738521764</v>
       </c>
       <c r="M7">
-        <v>17.57729098760325</v>
+        <v>12.15282029738101</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.00407035906811</v>
+        <v>20.56079018478331</v>
       </c>
       <c r="C8">
-        <v>10.83919259636087</v>
+        <v>17.50992388062467</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.819630756316489</v>
+        <v>6.211245336201392</v>
       </c>
       <c r="F8">
-        <v>16.53996406344769</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.736988539912854</v>
+        <v>2.11821578052235</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.4981722764414</v>
+        <v>36.6941402158277</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.49636319924594</v>
+        <v>6.68493565297584</v>
       </c>
       <c r="M8">
-        <v>17.60543548958041</v>
+        <v>12.79146862489759</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.66553261144694</v>
+        <v>24.10188705718476</v>
       </c>
       <c r="C9">
-        <v>12.07387022820516</v>
+        <v>20.63828663800315</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.893453436283853</v>
+        <v>6.52578873504484</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.726521200743181</v>
+        <v>2.084637253829936</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.37823640381075</v>
+        <v>40.29729383210528</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.48290983844246</v>
+        <v>6.941606717549896</v>
       </c>
       <c r="M9">
-        <v>17.69549182920973</v>
+        <v>14.06267704668924</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.1727189650717</v>
+        <v>26.55610162681393</v>
       </c>
       <c r="C10">
-        <v>12.92044394064993</v>
+        <v>22.78852256586093</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.945296887830215</v>
+        <v>6.762064739143643</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.719488260937742</v>
+        <v>2.060107225102447</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.03699851607502</v>
+        <v>42.96140736910922</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.48067020368067</v>
+        <v>7.150667807766865</v>
       </c>
       <c r="M10">
-        <v>17.78263097808993</v>
+        <v>15.30683011377321</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.40695567827485</v>
+        <v>27.64103094519598</v>
       </c>
       <c r="C11">
-        <v>13.29103059163995</v>
+        <v>23.7398990259859</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.968367180049718</v>
+        <v>6.871737717273288</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.716429488221879</v>
+        <v>2.048875261454965</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>39.33866255763698</v>
+        <v>44.18058673121752</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.48131177952981</v>
+        <v>7.250774790781484</v>
       </c>
       <c r="M11">
-        <v>17.82674875433409</v>
+        <v>15.92611992610926</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.49606866397237</v>
+        <v>28.04784809760356</v>
       </c>
       <c r="C12">
-        <v>13.42918181533485</v>
+        <v>24.09684618758321</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.97702978409643</v>
+        <v>6.913694301006834</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.715291261578985</v>
+        <v>2.044601111293427</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>39.45312291267609</v>
+        <v>44.64376769539967</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.48179334059945</v>
+        <v>7.289459566102169</v>
       </c>
       <c r="M12">
-        <v>17.84409077027777</v>
+        <v>16.15801655665477</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.47685970152366</v>
+        <v>27.96040244134719</v>
       </c>
       <c r="C13">
-        <v>13.39952683878168</v>
+        <v>24.02010935791841</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.975167407634901</v>
+        <v>6.904637245082323</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.715535509018491</v>
+        <v>2.045522737449559</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>39.42846269454414</v>
+        <v>44.54393743969538</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.48167901895526</v>
+        <v>7.281092537136486</v>
       </c>
       <c r="M13">
-        <v>17.84032773133115</v>
+        <v>16.10818439629208</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.4142793150904</v>
+        <v>27.67457737224773</v>
       </c>
       <c r="C14">
-        <v>13.3024405835158</v>
+        <v>23.76932841638684</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.96908133170114</v>
+        <v>6.875180258694128</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.716335444352195</v>
+        <v>2.048524108071759</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>39.34807507802368</v>
+        <v>44.21865955596455</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.48134661694406</v>
+        <v>7.253941480091649</v>
       </c>
       <c r="M14">
-        <v>17.82816280537411</v>
+        <v>15.9452486921385</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.37599802224105</v>
+        <v>27.49899427926836</v>
       </c>
       <c r="C15">
-        <v>13.24268579929005</v>
+        <v>23.61530302880888</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.965343854602891</v>
+        <v>6.857196141575002</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.716828036452432</v>
+        <v>2.050359481591697</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>39.29886309657738</v>
+        <v>44.01962971901035</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.48117407911757</v>
+        <v>7.237413683664909</v>
       </c>
       <c r="M15">
-        <v>17.82079394533515</v>
+        <v>15.84511517991547</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.15747381673244</v>
+        <v>26.48460620701929</v>
       </c>
       <c r="C16">
-        <v>12.89592462467951</v>
+        <v>22.72585253078673</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.94377887587363</v>
+        <v>6.754950390402426</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.719690974585222</v>
+        <v>2.060838945248586</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>39.01731903694032</v>
+        <v>42.88191303574307</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.48066167563323</v>
+        <v>7.144230868011822</v>
       </c>
       <c r="M16">
-        <v>17.77983718978147</v>
+        <v>15.26597450121657</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.02425022148241</v>
+        <v>25.85457418573686</v>
       </c>
       <c r="C17">
-        <v>12.67940634493011</v>
+        <v>22.17369670760059</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.930418091979146</v>
+        <v>6.692858864063004</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.721483187721321</v>
+        <v>2.067242211650579</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.84506844783681</v>
+        <v>42.18609973783282</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.48077252025998</v>
+        <v>7.088384741775394</v>
       </c>
       <c r="M17">
-        <v>17.75585276078988</v>
+        <v>14.90569296354549</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.94795990265688</v>
+        <v>25.4891951625393</v>
       </c>
       <c r="C18">
-        <v>12.55350817412092</v>
+        <v>21.85355436009962</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.922684970262138</v>
+        <v>6.657343749556683</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.722527258994921</v>
+        <v>2.07091902988369</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.74618536196975</v>
+        <v>41.78653356654646</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.48099257451826</v>
+        <v>7.056730515204578</v>
       </c>
       <c r="M18">
-        <v>17.74247957243249</v>
+        <v>14.69653705306165</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.9221899291199</v>
+        <v>25.36495471528734</v>
       </c>
       <c r="C19">
-        <v>12.51065030111818</v>
+        <v>21.74470571080846</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.920058356530458</v>
+        <v>6.645349975861266</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>3.722883041628049</v>
+        <v>2.072163164308378</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.71273983535781</v>
+        <v>41.6513469639283</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.48109392882726</v>
+        <v>7.046091598840162</v>
       </c>
       <c r="M19">
-        <v>17.73802436228596</v>
+        <v>14.6253802058776</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.03839796373638</v>
+        <v>25.9219494187542</v>
       </c>
       <c r="C20">
-        <v>12.70259683444312</v>
+        <v>22.23273569663651</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.93184537281436</v>
+        <v>6.699447358565311</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.721291034583776</v>
+        <v>2.066561280991078</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.86338548857049</v>
+        <v>42.2601004258453</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.48074454509242</v>
+        <v>7.094280951406217</v>
       </c>
       <c r="M20">
-        <v>17.75836232417328</v>
+        <v>14.94424339802194</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.43265022689819</v>
+        <v>27.75863572605138</v>
       </c>
       <c r="C21">
-        <v>13.33101705256678</v>
+        <v>23.84307422410115</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.970870955749662</v>
+        <v>6.883819933882409</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.716099940582411</v>
+        <v>2.047643190002452</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>39.37168119219635</v>
+        <v>44.31415626987265</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.48143777732869</v>
+        <v>7.26189481720202</v>
       </c>
       <c r="M21">
-        <v>17.831718760393</v>
+        <v>15.99317515948204</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.69267990249081</v>
+        <v>28.93588548613784</v>
       </c>
       <c r="C22">
-        <v>13.72897554938069</v>
+        <v>24.87649823864383</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.995947456493916</v>
+        <v>7.006869346734737</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026779</v>
       </c>
       <c r="G22">
-        <v>3.712824142238319</v>
+        <v>2.035151408052219</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>39.70517552857493</v>
+        <v>45.66570241001036</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.48328151233076</v>
+        <v>7.376001737319424</v>
       </c>
       <c r="M22">
-        <v>17.88336156526955</v>
+        <v>16.66364943562816</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.55371128107053</v>
+        <v>28.30948626264871</v>
       </c>
       <c r="C23">
-        <v>13.51777116291065</v>
+        <v>24.32648042508582</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.98260282941337</v>
+        <v>6.940919120304045</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>3.714561851093781</v>
+        <v>2.041834103381781</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>39.52708469132782</v>
+        <v>44.94332877351837</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.48217030409874</v>
+        <v>7.314661178560009</v>
       </c>
       <c r="M23">
-        <v>17.85546323729773</v>
+        <v>16.3070690830617</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.03200082267778</v>
+        <v>25.89149897182623</v>
       </c>
       <c r="C24">
-        <v>12.69211682653014</v>
+        <v>22.20605262023596</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.931200260602257</v>
+        <v>6.696468140890882</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575432</v>
       </c>
       <c r="G24">
-        <v>3.721377864321424</v>
+        <v>2.066869143022095</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.85510389497359</v>
+        <v>42.2266432953892</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.48075670572753</v>
+        <v>7.091613869849691</v>
       </c>
       <c r="M24">
-        <v>17.75722645488716</v>
+        <v>14.92682107704794</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.48249178538151</v>
+        <v>23.1672920487172</v>
       </c>
       <c r="C25">
-        <v>11.74994990126773</v>
+        <v>19.81960999427223</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.873904561889107</v>
+        <v>6.440094883015999</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459126712</v>
       </c>
       <c r="G25">
-        <v>3.729236752506505</v>
+        <v>2.093665659585958</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.137793264595</v>
+        <v>39.32039004939058</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.48520723212248</v>
+        <v>6.868734737612877</v>
       </c>
       <c r="M25">
-        <v>17.66742187987323</v>
+        <v>13.71705642521658</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04694075123172</v>
+        <v>11.71200233357619</v>
       </c>
       <c r="C2">
-        <v>17.96095778195819</v>
+        <v>7.5587845956592</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.254419504360328</v>
+        <v>15.47574524203919</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>34.08500618743773</v>
       </c>
       <c r="G2">
-        <v>2.113528279342037</v>
+        <v>30.95379711713663</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.52364472616404</v>
       </c>
       <c r="I2">
-        <v>37.19073369041993</v>
+        <v>3.410824879352908</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.12690356085699</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.28891262573556</v>
       </c>
       <c r="L2">
-        <v>6.718196830292748</v>
+        <v>5.744999606041741</v>
       </c>
       <c r="M2">
-        <v>12.96591695909832</v>
+        <v>10.89263906347755</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.22888120500767</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67761322358472</v>
+        <v>10.98404920064842</v>
       </c>
       <c r="C3">
-        <v>16.63144843490007</v>
+        <v>7.086510837635897</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.12929926339141</v>
+        <v>14.61674331351318</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>32.85970573523802</v>
       </c>
       <c r="G3">
-        <v>2.127197515519487</v>
+        <v>30.47690366676001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.7769821353018</v>
       </c>
       <c r="I3">
-        <v>35.75171105183966</v>
+        <v>3.586009854544844</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.12593605062258</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.30122335626488</v>
       </c>
       <c r="L3">
-        <v>6.623983419621961</v>
+        <v>5.692620178466611</v>
       </c>
       <c r="M3">
-        <v>12.46147821301536</v>
+        <v>10.27905600306666</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.46026737186865</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83117384926904</v>
+        <v>10.51027047500203</v>
       </c>
       <c r="C4">
-        <v>15.77882898632862</v>
+        <v>6.784703540607695</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.05250601457049</v>
+        <v>14.06591842079085</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>32.08924979031634</v>
       </c>
       <c r="G4">
-        <v>2.135728249624443</v>
+        <v>30.1873621058131</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.938128980990594</v>
       </c>
       <c r="I4">
-        <v>34.87031148341595</v>
+        <v>3.697859279727651</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.12745259858729</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.31082767050912</v>
       </c>
       <c r="L4">
-        <v>6.569802012506765</v>
+        <v>5.658746803214894</v>
       </c>
       <c r="M4">
-        <v>12.15450006625031</v>
+        <v>9.883136306875757</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.96825289764967</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48050637109251</v>
+        <v>10.30772745115503</v>
       </c>
       <c r="C5">
-        <v>15.42201431050396</v>
+        <v>6.66704993421614</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.02117936592859</v>
+        <v>13.84306774081909</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>31.75965985420463</v>
       </c>
       <c r="G5">
-        <v>2.139243877639236</v>
+        <v>30.04215559335828</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.005424491996649</v>
       </c>
       <c r="I5">
-        <v>34.51176082224816</v>
+        <v>3.747177671150151</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.1235509597548</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.3044336709204</v>
       </c>
       <c r="L5">
-        <v>6.54861948768871</v>
+        <v>5.643873001449284</v>
       </c>
       <c r="M5">
-        <v>12.03019537591389</v>
+        <v>9.718015262335028</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.76757202378631</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42193799321542</v>
+        <v>10.27033574393039</v>
       </c>
       <c r="C6">
-        <v>15.36219338769936</v>
+        <v>6.657498002408557</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.015974535999741</v>
+        <v>13.81475406586649</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>31.69067783920661</v>
       </c>
       <c r="G6">
-        <v>2.139830144974114</v>
+        <v>29.98377324248609</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.016926671083438</v>
       </c>
       <c r="I6">
-        <v>34.45226503202306</v>
+        <v>3.75881906394735</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.11678423315346</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.2902151667634</v>
       </c>
       <c r="L6">
-        <v>6.545155601582913</v>
+        <v>5.640602714116318</v>
       </c>
       <c r="M6">
-        <v>12.00960581031105</v>
+        <v>9.69151989755729</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.73973775474197</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82646758794063</v>
+        <v>10.49861271482228</v>
       </c>
       <c r="C7">
-        <v>15.77405507526879</v>
+        <v>6.810252223658726</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.052083714852206</v>
+        <v>14.08709693486734</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>32.04706310729869</v>
       </c>
       <c r="G7">
-        <v>2.135775497737924</v>
+        <v>30.09218103456948</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.939677799129148</v>
       </c>
       <c r="I7">
-        <v>34.86547325838406</v>
+        <v>3.707490489593756</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.1106445378006</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.27477948037235</v>
       </c>
       <c r="L7">
-        <v>6.569512738521764</v>
+        <v>5.656463551804494</v>
       </c>
       <c r="M7">
-        <v>12.15282029738101</v>
+        <v>9.884175310697801</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.98102494038075</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56079018478331</v>
+        <v>11.45559118714211</v>
       </c>
       <c r="C8">
-        <v>17.50992388062467</v>
+        <v>7.431647679876997</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.211245336201392</v>
+        <v>15.21425702860495</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>33.61889133427881</v>
       </c>
       <c r="G8">
-        <v>2.11821578052235</v>
+        <v>30.66811549416741</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.610655782385442</v>
       </c>
       <c r="I8">
-        <v>36.6941402158277</v>
+        <v>3.481800597139786</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.10417306266677</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.24549711653831</v>
       </c>
       <c r="L8">
-        <v>6.68493565297584</v>
+        <v>5.724669660345302</v>
       </c>
       <c r="M8">
-        <v>12.79146862489759</v>
+        <v>10.68913876826833</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.98716346521313</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.10188705718476</v>
+        <v>13.13383007274879</v>
       </c>
       <c r="C9">
-        <v>20.63828663800315</v>
+        <v>8.513044853501153</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.52578873504484</v>
+        <v>17.19628308017368</v>
       </c>
       <c r="F9">
-        <v>34.45877994148621</v>
+        <v>36.60563297287472</v>
       </c>
       <c r="G9">
-        <v>2.084637253829936</v>
+        <v>31.98367148725806</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.007754333715598</v>
       </c>
       <c r="I9">
-        <v>40.29729383210528</v>
+        <v>3.057860738229597</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.13866593484414</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.26916220152243</v>
       </c>
       <c r="L9">
-        <v>6.941606717549896</v>
+        <v>5.848491211424283</v>
       </c>
       <c r="M9">
-        <v>14.06267704668924</v>
+        <v>12.10853105210882</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.7709983050859</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.55610162681393</v>
+        <v>14.25566120689297</v>
       </c>
       <c r="C10">
-        <v>22.78852256586093</v>
+        <v>9.248007946622302</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.762064739143643</v>
+        <v>18.24703640076022</v>
       </c>
       <c r="F10">
-        <v>37.72874519847226</v>
+        <v>38.30358147417346</v>
       </c>
       <c r="G10">
-        <v>2.060107225102447</v>
+        <v>32.63289941915129</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.631246203490014</v>
       </c>
       <c r="I10">
-        <v>42.96140736910922</v>
+        <v>2.776329003015628</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.11419614001049</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.18189157115464</v>
       </c>
       <c r="L10">
-        <v>7.150667807766865</v>
+        <v>5.917361708553312</v>
       </c>
       <c r="M10">
-        <v>15.30683011377321</v>
+        <v>13.06591772507232</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.84061583429273</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64103094519598</v>
+        <v>14.91295589768258</v>
       </c>
       <c r="C11">
-        <v>23.7398990259859</v>
+        <v>9.4858674652576</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.871737717273288</v>
+        <v>16.2128310593706</v>
       </c>
       <c r="F11">
-        <v>39.14805722232853</v>
+        <v>35.85759175820371</v>
       </c>
       <c r="G11">
-        <v>2.048875261454965</v>
+        <v>30.33034292740363</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.705895967113754</v>
       </c>
       <c r="I11">
-        <v>44.18058673121752</v>
+        <v>2.707972371222457</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.62081857469115</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.24626763079212</v>
       </c>
       <c r="L11">
-        <v>7.250774790781484</v>
+        <v>5.901245570439332</v>
       </c>
       <c r="M11">
-        <v>15.92611992610926</v>
+        <v>13.55728679949276</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.1037278035624</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.04784809760356</v>
+        <v>15.25399260630822</v>
       </c>
       <c r="C12">
-        <v>24.09684618758321</v>
+        <v>9.50424790754702</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.913694301006834</v>
+        <v>14.26426892983357</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>33.46903418006512</v>
       </c>
       <c r="G12">
-        <v>2.044601111293427</v>
+        <v>28.3730349271227</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.128893194910392</v>
       </c>
       <c r="I12">
-        <v>44.64376769539967</v>
+        <v>2.688325259309307</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.23890303919133</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.5485276923609</v>
       </c>
       <c r="L12">
-        <v>7.289459566102169</v>
+        <v>5.96902399532085</v>
       </c>
       <c r="M12">
-        <v>16.15801655665477</v>
+        <v>13.77522456194279</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.23019161583479</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96040244134719</v>
+        <v>15.37254659328268</v>
       </c>
       <c r="C13">
-        <v>24.02010935791841</v>
+        <v>9.387134296696448</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.904637245082323</v>
+        <v>12.25496188105848</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>30.8871842279829</v>
       </c>
       <c r="G13">
-        <v>2.045522737449559</v>
+        <v>26.41419739525667</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.577586819108303</v>
       </c>
       <c r="I13">
-        <v>44.54393743969538</v>
+        <v>2.720251874570434</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.89571875851802</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.9424199563363</v>
       </c>
       <c r="L13">
-        <v>7.281092537136486</v>
+        <v>6.096346607277518</v>
       </c>
       <c r="M13">
-        <v>16.10818439629208</v>
+        <v>13.80619391588278</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.19261046595692</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67457737224773</v>
+        <v>15.35482580203225</v>
       </c>
       <c r="C14">
-        <v>23.76932841638684</v>
+        <v>9.24883231896143</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.875180258694128</v>
+        <v>10.826673894173</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>28.97155610626638</v>
       </c>
       <c r="G14">
-        <v>2.048524108071759</v>
+        <v>25.02625997645208</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.59948422644965</v>
       </c>
       <c r="I14">
-        <v>44.21865955596455</v>
+        <v>2.768823977753038</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.672712683271625</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.56131615468625</v>
       </c>
       <c r="L14">
-        <v>7.253941480091649</v>
+        <v>6.220391082595259</v>
       </c>
       <c r="M14">
-        <v>15.9452486921385</v>
+        <v>13.7447700772448</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.38257050606922</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.49899427926836</v>
+        <v>15.29979345278185</v>
       </c>
       <c r="C15">
-        <v>23.61530302880888</v>
+        <v>9.193854164711132</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.857196141575002</v>
+        <v>10.46730359844881</v>
       </c>
       <c r="F15">
-        <v>38.96319309154514</v>
+        <v>28.45208073694934</v>
       </c>
       <c r="G15">
-        <v>2.050359481591697</v>
+        <v>24.66119039960429</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.838041817798286</v>
       </c>
       <c r="I15">
-        <v>44.01962971901035</v>
+        <v>2.796616404732813</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.621584920878112</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.47658980404057</v>
       </c>
       <c r="L15">
-        <v>7.237413683664909</v>
+        <v>6.251434335814891</v>
       </c>
       <c r="M15">
-        <v>15.84511517991547</v>
+        <v>13.69040591422675</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.1534017128711</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.48460620701929</v>
+        <v>14.82450857978592</v>
       </c>
       <c r="C16">
-        <v>22.72585253078673</v>
+        <v>8.920977784586452</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.754950390402426</v>
+        <v>10.30704306311307</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>28.12526623389441</v>
       </c>
       <c r="G16">
-        <v>2.060838945248586</v>
+        <v>24.69072439358308</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.650265916890453</v>
       </c>
       <c r="I16">
-        <v>42.88191303574307</v>
+        <v>2.915044844669269</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.694123160430905</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.62440029097609</v>
       </c>
       <c r="L16">
-        <v>7.144230868011822</v>
+        <v>6.190477113259279</v>
       </c>
       <c r="M16">
-        <v>15.26597450121657</v>
+        <v>13.2965130129888</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.85656392208445</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.85457418573686</v>
+        <v>14.46059454736932</v>
       </c>
       <c r="C17">
-        <v>22.17369670760059</v>
+        <v>8.785683601425092</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.692858864063004</v>
+        <v>10.96423758053396</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>28.91537776283177</v>
       </c>
       <c r="G17">
-        <v>2.067242211650579</v>
+        <v>25.44987978526166</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.935737355736602</v>
       </c>
       <c r="I17">
-        <v>42.18609973783282</v>
+        <v>2.981141239623086</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.865676499214853</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.93245218857202</v>
       </c>
       <c r="L17">
-        <v>7.088384741775394</v>
+        <v>6.070638216574173</v>
       </c>
       <c r="M17">
-        <v>14.90569296354549</v>
+        <v>13.02209112992648</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.07702645842152</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.4891951625393</v>
+        <v>14.16481492358967</v>
       </c>
       <c r="C18">
-        <v>21.85355436009962</v>
+        <v>8.738585422675223</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.657343749556683</v>
+        <v>12.44012239234304</v>
       </c>
       <c r="F18">
-        <v>36.31710943239627</v>
+        <v>30.79593234413329</v>
       </c>
       <c r="G18">
-        <v>2.07091902988369</v>
+        <v>27.00296088039893</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.712688047666807</v>
       </c>
       <c r="I18">
-        <v>41.78653356654646</v>
+        <v>2.997555220139526</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.15905945219204</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.45530841071631</v>
       </c>
       <c r="L18">
-        <v>7.056730515204578</v>
+        <v>5.925624708562925</v>
       </c>
       <c r="M18">
-        <v>14.69653705306165</v>
+        <v>12.82280531624956</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.76010770051605</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.36495471528734</v>
+        <v>13.93828067278177</v>
       </c>
       <c r="C19">
-        <v>21.74470571080846</v>
+        <v>8.808159454694685</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.645349975861266</v>
+        <v>14.5290506712308</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>33.36004659829113</v>
       </c>
       <c r="G19">
-        <v>2.072163164308378</v>
+        <v>28.95666846377106</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.268562102147428</v>
       </c>
       <c r="I19">
-        <v>41.6513469639283</v>
+        <v>2.990147970095109</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.51287274158877</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.08794975331878</v>
       </c>
       <c r="L19">
-        <v>7.046091598840162</v>
+        <v>5.836755062823603</v>
       </c>
       <c r="M19">
-        <v>14.6253802058776</v>
+        <v>12.708188454746</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.77671381311409</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.9219494187542</v>
+        <v>13.94914259240099</v>
       </c>
       <c r="C20">
-        <v>22.23273569663651</v>
+        <v>9.123913191395964</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.699447358565311</v>
+        <v>18.02268813984961</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>37.74851628968025</v>
       </c>
       <c r="G20">
-        <v>2.066561280991078</v>
+        <v>32.18340181505061</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.729523771281339</v>
       </c>
       <c r="I20">
-        <v>42.2601004258453</v>
+        <v>2.880464127648739</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.0673076911864</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.09145579285062</v>
       </c>
       <c r="L20">
-        <v>7.094280951406217</v>
+        <v>5.893862000391442</v>
       </c>
       <c r="M20">
-        <v>14.94424339802194</v>
+        <v>12.8297366296832</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.59743151985494</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.75863572605138</v>
+        <v>14.74174557037323</v>
       </c>
       <c r="C21">
-        <v>23.84307422410115</v>
+        <v>9.673828421365856</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.883819933882409</v>
+        <v>19.23663322137221</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.60637213519467</v>
       </c>
       <c r="G21">
-        <v>2.047643190002452</v>
+        <v>33.19449920569755</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.730669048956291</v>
       </c>
       <c r="I21">
-        <v>44.31415626987265</v>
+        <v>2.658266928046915</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.14710904547762</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.20702526601156</v>
       </c>
       <c r="L21">
-        <v>7.26189481720202</v>
+        <v>5.966099196931322</v>
       </c>
       <c r="M21">
-        <v>15.99317515948204</v>
+        <v>13.51909567880449</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.59534149272581</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.93588548613784</v>
+        <v>15.25597310447974</v>
       </c>
       <c r="C22">
-        <v>24.87649823864383</v>
+        <v>9.991512374092725</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.006869346734737</v>
+        <v>19.8321769633179</v>
       </c>
       <c r="F22">
-        <v>40.81974568026779</v>
+        <v>40.64573027214124</v>
       </c>
       <c r="G22">
-        <v>2.035151408052219</v>
+        <v>33.81472638725079</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.92729433800517</v>
       </c>
       <c r="I22">
-        <v>45.66570241001036</v>
+        <v>2.505437473373008</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.19500062246886</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.27922456644363</v>
       </c>
       <c r="L22">
-        <v>7.376001737319424</v>
+        <v>6.007405426531489</v>
       </c>
       <c r="M22">
-        <v>16.66364943562816</v>
+        <v>13.95342683625676</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.1398469793666</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30948626264871</v>
+        <v>14.99138313181152</v>
       </c>
       <c r="C23">
-        <v>24.32648042508582</v>
+        <v>9.799497493050204</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.940919120304045</v>
+        <v>19.49514936597652</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.12900173525836</v>
       </c>
       <c r="G23">
-        <v>2.041834103381781</v>
+        <v>33.58072504040466</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.82329648351367</v>
       </c>
       <c r="I23">
-        <v>44.94332877351837</v>
+        <v>2.573986286866587</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.18799149752425</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.28109395675902</v>
       </c>
       <c r="L23">
-        <v>7.314661178560009</v>
+        <v>5.987487150717448</v>
       </c>
       <c r="M23">
-        <v>16.3070690830617</v>
+        <v>13.72022571469445</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.83752197548155</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.89149897182623</v>
+        <v>13.9311261113291</v>
       </c>
       <c r="C24">
-        <v>22.20605262023596</v>
+        <v>9.087562036543691</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.696468140890882</v>
+        <v>18.20632671336941</v>
       </c>
       <c r="F24">
-        <v>36.85121910575432</v>
+        <v>38.0686806945351</v>
       </c>
       <c r="G24">
-        <v>2.066869143022095</v>
+        <v>32.5496302339861</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.703995547933729</v>
       </c>
       <c r="I24">
-        <v>42.2266432953892</v>
+        <v>2.861254087560138</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.13774132366371</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.23123278373963</v>
       </c>
       <c r="L24">
-        <v>7.091613869849691</v>
+        <v>5.906254636769033</v>
       </c>
       <c r="M24">
-        <v>14.92682107704794</v>
+        <v>12.80669888357611</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.67301979175021</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.1672920487172</v>
+        <v>12.68896228094878</v>
       </c>
       <c r="C25">
-        <v>19.81960999427223</v>
+        <v>8.271637293911818</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.440094883015999</v>
+        <v>16.71785839593572</v>
       </c>
       <c r="F25">
-        <v>33.19272459126712</v>
+        <v>35.75578896861298</v>
       </c>
       <c r="G25">
-        <v>2.093665659585958</v>
+        <v>31.46653995614444</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.167385970141253</v>
       </c>
       <c r="I25">
-        <v>39.32039004939058</v>
+        <v>3.185668317931139</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.09779895661102</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.19707465194041</v>
       </c>
       <c r="L25">
-        <v>6.868734737612877</v>
+        <v>5.813055192859048</v>
       </c>
       <c r="M25">
-        <v>13.71705642521658</v>
+        <v>11.74630870991286</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>15.33029231771733</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.71200233357619</v>
+        <v>11.68793669237973</v>
       </c>
       <c r="C2">
-        <v>7.5587845956592</v>
+        <v>7.90174838203742</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.47574524203919</v>
+        <v>16.09933309418025</v>
       </c>
       <c r="F2">
-        <v>34.08500618743773</v>
+        <v>33.24557907552849</v>
       </c>
       <c r="G2">
-        <v>30.95379711713663</v>
+        <v>28.14796731212437</v>
       </c>
       <c r="H2">
-        <v>2.52364472616404</v>
+        <v>2.457304669155231</v>
       </c>
       <c r="I2">
-        <v>3.410824879352908</v>
+        <v>3.207937575600427</v>
       </c>
       <c r="J2">
-        <v>11.12690356085699</v>
+        <v>10.78263871413343</v>
       </c>
       <c r="K2">
-        <v>17.28891262573556</v>
+        <v>16.06961448534234</v>
       </c>
       <c r="L2">
-        <v>5.744999606041741</v>
+        <v>13.07228525480761</v>
       </c>
       <c r="M2">
-        <v>10.89263906347755</v>
+        <v>10.70301244661269</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.665484713178528</v>
       </c>
       <c r="O2">
-        <v>14.22888120500767</v>
+        <v>11.01745841892465</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.58469108709932</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.98404920064842</v>
+        <v>11.00128676897338</v>
       </c>
       <c r="C3">
-        <v>7.086510837635897</v>
+        <v>7.342214921646876</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.61674331351318</v>
+        <v>15.19446212041588</v>
       </c>
       <c r="F3">
-        <v>32.85970573523802</v>
+        <v>32.12497117508495</v>
       </c>
       <c r="G3">
-        <v>30.47690366676001</v>
+        <v>27.97111550075244</v>
       </c>
       <c r="H3">
-        <v>2.7769821353018</v>
+        <v>2.701456227021036</v>
       </c>
       <c r="I3">
-        <v>3.586009854544844</v>
+        <v>3.358664364750621</v>
       </c>
       <c r="J3">
-        <v>11.12593605062258</v>
+        <v>10.78103316820338</v>
       </c>
       <c r="K3">
-        <v>17.30122335626488</v>
+        <v>16.1675952414287</v>
       </c>
       <c r="L3">
-        <v>5.692620178466611</v>
+        <v>13.21832846400466</v>
       </c>
       <c r="M3">
-        <v>10.27905600306666</v>
+        <v>10.73115177979841</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.614853662113044</v>
       </c>
       <c r="O3">
-        <v>13.46026737186865</v>
+        <v>10.40207410301</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.77806004232466</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.51027047500203</v>
+        <v>10.5550272445073</v>
       </c>
       <c r="C4">
-        <v>6.784703540607695</v>
+        <v>6.982978825458158</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.06591842079085</v>
+        <v>14.61470607007507</v>
       </c>
       <c r="F4">
-        <v>32.08924979031634</v>
+        <v>31.42083535111021</v>
       </c>
       <c r="G4">
-        <v>30.1873621058131</v>
+        <v>27.86995514846046</v>
       </c>
       <c r="H4">
-        <v>2.938128980990594</v>
+        <v>2.856819822165552</v>
       </c>
       <c r="I4">
-        <v>3.697859279727651</v>
+        <v>3.45524430950359</v>
       </c>
       <c r="J4">
-        <v>11.12745259858729</v>
+        <v>10.7800680500978</v>
       </c>
       <c r="K4">
-        <v>17.31082767050912</v>
+        <v>16.22871380184077</v>
       </c>
       <c r="L4">
-        <v>5.658746803214894</v>
+        <v>13.30754243040309</v>
       </c>
       <c r="M4">
-        <v>9.883136306875757</v>
+        <v>10.76439553040128</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.582169917220648</v>
       </c>
       <c r="O4">
-        <v>12.96825289764967</v>
+        <v>10.00513802910047</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.26140761764243</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.30772745115503</v>
+        <v>10.36453695281444</v>
       </c>
       <c r="C5">
-        <v>6.66704993421614</v>
+        <v>6.840724708375047</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.84306774081909</v>
+        <v>14.3791739673676</v>
       </c>
       <c r="F5">
-        <v>31.75965985420463</v>
+        <v>31.11984105030231</v>
       </c>
       <c r="G5">
-        <v>30.04215559335828</v>
+        <v>27.80567480673403</v>
       </c>
       <c r="H5">
-        <v>3.005424491996649</v>
+        <v>2.921697350618729</v>
       </c>
       <c r="I5">
-        <v>3.747177671150151</v>
+        <v>3.498717310072685</v>
       </c>
       <c r="J5">
-        <v>11.1235509597548</v>
+        <v>10.775202425055</v>
       </c>
       <c r="K5">
-        <v>17.3044336709204</v>
+        <v>16.24467785226107</v>
       </c>
       <c r="L5">
-        <v>5.643873001449284</v>
+        <v>13.33539084462142</v>
       </c>
       <c r="M5">
-        <v>9.718015262335028</v>
+        <v>10.77650276126802</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.567950616538299</v>
       </c>
       <c r="O5">
-        <v>12.76757202378631</v>
+        <v>9.839550435354925</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.04993037707891</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.27033574393039</v>
+        <v>10.32951250417212</v>
       </c>
       <c r="C6">
-        <v>6.657498002408557</v>
+        <v>6.826754019887578</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.81475406586649</v>
+        <v>14.34784339990872</v>
       </c>
       <c r="F6">
-        <v>31.69067783920661</v>
+        <v>31.05700071013702</v>
       </c>
       <c r="G6">
-        <v>29.98377324248609</v>
+        <v>27.76480709053175</v>
       </c>
       <c r="H6">
-        <v>3.016926671083438</v>
+        <v>2.932767066802404</v>
       </c>
       <c r="I6">
-        <v>3.75881906394735</v>
+        <v>3.509971351276172</v>
       </c>
       <c r="J6">
-        <v>11.11678423315346</v>
+        <v>10.76893091138597</v>
       </c>
       <c r="K6">
-        <v>17.2902151667634</v>
+        <v>16.23615940092353</v>
       </c>
       <c r="L6">
-        <v>5.640602714116318</v>
+        <v>13.32977185422787</v>
       </c>
       <c r="M6">
-        <v>9.69151989755729</v>
+        <v>10.77214440843983</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.564962634329793</v>
       </c>
       <c r="O6">
-        <v>12.73973775474197</v>
+        <v>9.812871090864475</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.01973729351781</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.49861271482228</v>
+        <v>10.54519377928767</v>
       </c>
       <c r="C7">
-        <v>6.810252223658726</v>
+        <v>6.997041561981936</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.08709693486734</v>
+        <v>14.64789349906329</v>
       </c>
       <c r="F7">
-        <v>32.04706310729869</v>
+        <v>31.36311508083416</v>
       </c>
       <c r="G7">
-        <v>30.09218103456948</v>
+        <v>27.83139490009102</v>
       </c>
       <c r="H7">
-        <v>2.939677799129148</v>
+        <v>2.858675252193041</v>
       </c>
       <c r="I7">
-        <v>3.707490489593756</v>
+        <v>3.467011453631683</v>
       </c>
       <c r="J7">
-        <v>11.1106445378006</v>
+        <v>10.7241181864614</v>
       </c>
       <c r="K7">
-        <v>17.27477948037235</v>
+        <v>16.18429963668191</v>
       </c>
       <c r="L7">
-        <v>5.656463551804494</v>
+        <v>13.26788394962672</v>
       </c>
       <c r="M7">
-        <v>9.884175310697801</v>
+        <v>10.73718120364009</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.579498625133877</v>
       </c>
       <c r="O7">
-        <v>12.98102494038075</v>
+        <v>10.00306573292402</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.27846692938284</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.45559118714211</v>
+        <v>11.44888066912535</v>
       </c>
       <c r="C8">
-        <v>7.431647679876997</v>
+        <v>7.712430406049788</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.21425702860495</v>
+        <v>15.86460309301365</v>
       </c>
       <c r="F8">
-        <v>33.61889133427881</v>
+        <v>32.7576957084059</v>
       </c>
       <c r="G8">
-        <v>30.66811549416741</v>
+        <v>28.12712921224951</v>
       </c>
       <c r="H8">
-        <v>2.610655782385442</v>
+        <v>2.542350744316941</v>
       </c>
       <c r="I8">
-        <v>3.481800597139786</v>
+        <v>3.27456798447097</v>
       </c>
       <c r="J8">
-        <v>11.10417306266677</v>
+        <v>10.62946584812025</v>
       </c>
       <c r="K8">
-        <v>17.24549711653831</v>
+        <v>16.01739507732807</v>
       </c>
       <c r="L8">
-        <v>5.724669660345302</v>
+        <v>13.05083747849197</v>
       </c>
       <c r="M8">
-        <v>10.68913876826833</v>
+        <v>10.65075977545842</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.643741584984531</v>
       </c>
       <c r="O8">
-        <v>13.98716346521313</v>
+        <v>10.80428008723988</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.3465645430059</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.13383007274879</v>
+        <v>13.0344947722033</v>
       </c>
       <c r="C9">
-        <v>8.513044853501153</v>
+        <v>8.987549193262359</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.19628308017368</v>
+        <v>17.9646761022361</v>
       </c>
       <c r="F9">
-        <v>36.60563297287472</v>
+        <v>35.48156779208422</v>
       </c>
       <c r="G9">
-        <v>31.98367148725806</v>
+        <v>28.75040532037581</v>
       </c>
       <c r="H9">
-        <v>2.007754333715598</v>
+        <v>1.961939300929268</v>
       </c>
       <c r="I9">
-        <v>3.057860738229597</v>
+        <v>2.909053535730638</v>
       </c>
       <c r="J9">
-        <v>11.13866593484414</v>
+        <v>10.61632210823971</v>
       </c>
       <c r="K9">
-        <v>17.26916220152243</v>
+        <v>15.80320517070672</v>
       </c>
       <c r="L9">
-        <v>5.848491211424283</v>
+        <v>12.71122151687699</v>
       </c>
       <c r="M9">
-        <v>12.10853105210882</v>
+        <v>10.6789158373096</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.762946996216963</v>
       </c>
       <c r="O9">
-        <v>15.7709983050859</v>
+        <v>12.22726702222515</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.22164880997135</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.25566120689297</v>
+        <v>14.10447720856559</v>
       </c>
       <c r="C10">
-        <v>9.248007946622302</v>
+        <v>9.789847026108525</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.24703640076022</v>
+        <v>19.15150607443721</v>
       </c>
       <c r="F10">
-        <v>38.30358147417346</v>
+        <v>36.92467052771288</v>
       </c>
       <c r="G10">
-        <v>32.63289941915129</v>
+        <v>29.23473418168194</v>
       </c>
       <c r="H10">
-        <v>1.631246203490014</v>
+        <v>1.60307678655711</v>
       </c>
       <c r="I10">
-        <v>2.776329003015628</v>
+        <v>2.672854544825991</v>
       </c>
       <c r="J10">
-        <v>11.11419614001049</v>
+        <v>10.3390393874207</v>
       </c>
       <c r="K10">
-        <v>17.18189157115464</v>
+        <v>15.48785790540368</v>
       </c>
       <c r="L10">
-        <v>5.917361708553312</v>
+        <v>12.34309746593379</v>
       </c>
       <c r="M10">
-        <v>13.06591772507232</v>
+        <v>10.64372427643954</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.832219919533071</v>
       </c>
       <c r="O10">
-        <v>16.84061583429273</v>
+        <v>13.17276294481384</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.37061281582184</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.91295589768258</v>
+        <v>14.77621068347238</v>
       </c>
       <c r="C11">
-        <v>9.4858674652576</v>
+        <v>9.882962191184294</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.2128310593706</v>
+        <v>17.19428569189249</v>
       </c>
       <c r="F11">
-        <v>35.85759175820371</v>
+        <v>34.36588864459748</v>
       </c>
       <c r="G11">
-        <v>30.33034292740363</v>
+        <v>27.72391201560644</v>
       </c>
       <c r="H11">
-        <v>2.705895967113754</v>
+        <v>2.692905517148195</v>
       </c>
       <c r="I11">
-        <v>2.707972371222457</v>
+        <v>2.626757181023867</v>
       </c>
       <c r="J11">
-        <v>10.62081857469115</v>
+        <v>9.545566765855625</v>
       </c>
       <c r="K11">
-        <v>16.24626763079212</v>
+        <v>14.57393249467605</v>
       </c>
       <c r="L11">
-        <v>5.901245570439332</v>
+        <v>11.6564750623268</v>
       </c>
       <c r="M11">
-        <v>13.55728679949276</v>
+        <v>9.984223419794116</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.875371756675063</v>
       </c>
       <c r="O11">
-        <v>16.1037278035624</v>
+        <v>13.62635641528846</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.65658051809281</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.25399260630822</v>
+        <v>15.13695092556843</v>
       </c>
       <c r="C12">
-        <v>9.50424790754702</v>
+        <v>9.793842386520451</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.26426892983357</v>
+        <v>15.2370891873373</v>
       </c>
       <c r="F12">
-        <v>33.46903418006512</v>
+        <v>31.9920903604605</v>
       </c>
       <c r="G12">
-        <v>28.3730349271227</v>
+        <v>26.28298291116707</v>
       </c>
       <c r="H12">
-        <v>4.128893194910392</v>
+        <v>4.120660985585882</v>
       </c>
       <c r="I12">
-        <v>2.688325259309307</v>
+        <v>2.612102764567086</v>
       </c>
       <c r="J12">
-        <v>10.23890303919133</v>
+        <v>9.137458235638078</v>
       </c>
       <c r="K12">
-        <v>15.5485276923609</v>
+        <v>13.99216478580414</v>
       </c>
       <c r="L12">
-        <v>5.96902399532085</v>
+        <v>11.25635355711088</v>
       </c>
       <c r="M12">
-        <v>13.77522456194279</v>
+        <v>9.516325687188541</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.994317061921746</v>
       </c>
       <c r="O12">
-        <v>15.23019161583479</v>
+        <v>13.82232731470637</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.77113957523015</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.37254659328268</v>
+        <v>15.27963544272751</v>
       </c>
       <c r="C13">
-        <v>9.387134296696448</v>
+        <v>9.605975432391574</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.25496188105848</v>
+        <v>13.12335204049231</v>
       </c>
       <c r="F13">
-        <v>30.8871842279829</v>
+        <v>29.56861117790343</v>
       </c>
       <c r="G13">
-        <v>26.41419739525667</v>
+        <v>24.56871148433984</v>
       </c>
       <c r="H13">
-        <v>5.577586819108303</v>
+        <v>5.570116461856817</v>
       </c>
       <c r="I13">
-        <v>2.720251874570434</v>
+        <v>2.637921168867654</v>
       </c>
       <c r="J13">
-        <v>9.89571875851802</v>
+        <v>8.984517692563029</v>
       </c>
       <c r="K13">
-        <v>14.9424199563363</v>
+        <v>13.60430962745715</v>
       </c>
       <c r="L13">
-        <v>6.096346607277518</v>
+        <v>11.01092953653214</v>
       </c>
       <c r="M13">
-        <v>13.80619391588278</v>
+        <v>9.161495239145674</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.157362179868529</v>
       </c>
       <c r="O13">
-        <v>14.19261046595692</v>
+        <v>13.8467470558132</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.6805031572301</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.35482580203225</v>
+        <v>15.28123246071698</v>
       </c>
       <c r="C14">
-        <v>9.24883231896143</v>
+        <v>9.432491850627811</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.826673894173</v>
+        <v>11.580010306268</v>
       </c>
       <c r="F14">
-        <v>28.97155610626638</v>
+        <v>27.82761327102085</v>
       </c>
       <c r="G14">
-        <v>25.02625997645208</v>
+        <v>23.24532611644222</v>
       </c>
       <c r="H14">
-        <v>6.59948422644965</v>
+        <v>6.591678528564724</v>
       </c>
       <c r="I14">
-        <v>2.768823977753038</v>
+        <v>2.677854240301107</v>
       </c>
       <c r="J14">
-        <v>9.672712683271625</v>
+        <v>8.96515541351388</v>
       </c>
       <c r="K14">
-        <v>14.56131615468625</v>
+        <v>13.41083071383225</v>
       </c>
       <c r="L14">
-        <v>6.220391082595259</v>
+        <v>10.89551383128276</v>
       </c>
       <c r="M14">
-        <v>13.7447700772448</v>
+        <v>8.96281503479892</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.293715977346624</v>
       </c>
       <c r="O14">
-        <v>13.38257050606922</v>
+        <v>13.78732749352126</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.81425261135446</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.29979345278185</v>
+        <v>15.23225397869822</v>
       </c>
       <c r="C15">
-        <v>9.193854164711132</v>
+        <v>9.374730982302491</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.46730359844881</v>
+        <v>11.17660599235871</v>
       </c>
       <c r="F15">
-        <v>28.45208073694934</v>
+        <v>27.37825740379284</v>
       </c>
       <c r="G15">
-        <v>24.66119039960429</v>
+        <v>22.85709811633208</v>
       </c>
       <c r="H15">
-        <v>6.838041817798286</v>
+        <v>6.829807835233029</v>
       </c>
       <c r="I15">
-        <v>2.796616404732813</v>
+        <v>2.70198507580681</v>
       </c>
       <c r="J15">
-        <v>9.621584920878112</v>
+        <v>8.994442765682701</v>
       </c>
       <c r="K15">
-        <v>14.47658980404057</v>
+        <v>13.38829864796479</v>
       </c>
       <c r="L15">
-        <v>6.251434335814891</v>
+        <v>10.88462736874925</v>
       </c>
       <c r="M15">
-        <v>13.69040591422675</v>
+        <v>8.929118928895328</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.323643673932053</v>
       </c>
       <c r="O15">
-        <v>13.1534017128711</v>
+        <v>13.73633026277437</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.56295681986536</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.82450857978592</v>
+        <v>14.76823942381486</v>
       </c>
       <c r="C16">
-        <v>8.920977784586452</v>
+        <v>9.151728088614362</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.30704306311307</v>
+        <v>10.89250457027887</v>
       </c>
       <c r="F16">
-        <v>28.12526623389441</v>
+        <v>27.27258228628289</v>
       </c>
       <c r="G16">
-        <v>24.69072439358308</v>
+        <v>22.56574923626461</v>
       </c>
       <c r="H16">
-        <v>6.650265916890453</v>
+        <v>6.638288802122763</v>
       </c>
       <c r="I16">
-        <v>2.915044844669269</v>
+        <v>2.799111771144904</v>
       </c>
       <c r="J16">
-        <v>9.694123160430905</v>
+        <v>9.340419835938917</v>
       </c>
       <c r="K16">
-        <v>14.62440029097609</v>
+        <v>13.66470371773219</v>
       </c>
       <c r="L16">
-        <v>6.190477113259279</v>
+        <v>11.08260389293747</v>
       </c>
       <c r="M16">
-        <v>13.2965130129888</v>
+        <v>9.105346975789118</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.236061779877679</v>
       </c>
       <c r="O16">
-        <v>12.85656392208445</v>
+        <v>13.3677334695967</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.1992210297479</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.46059454736932</v>
+        <v>14.40380332905606</v>
       </c>
       <c r="C17">
-        <v>8.785683601425092</v>
+        <v>9.062954331707127</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.96423758053396</v>
+        <v>11.52521828003485</v>
       </c>
       <c r="F17">
-        <v>28.91537776283177</v>
+        <v>28.11705120127982</v>
       </c>
       <c r="G17">
-        <v>25.44987978526166</v>
+        <v>23.09701672750934</v>
       </c>
       <c r="H17">
-        <v>5.935737355736602</v>
+        <v>5.920223351134952</v>
       </c>
       <c r="I17">
-        <v>2.981141239623086</v>
+        <v>2.854225298845166</v>
       </c>
       <c r="J17">
-        <v>9.865676499214853</v>
+        <v>9.608185704285916</v>
       </c>
       <c r="K17">
-        <v>14.93245218857202</v>
+        <v>13.97078603655076</v>
       </c>
       <c r="L17">
-        <v>6.070638216574173</v>
+        <v>11.30366046164672</v>
       </c>
       <c r="M17">
-        <v>13.02209112992648</v>
+        <v>9.32839889635761</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.097109093043089</v>
       </c>
       <c r="O17">
-        <v>13.07702645842152</v>
+        <v>13.10844249060259</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.40570942416061</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.16481492358967</v>
+        <v>14.09488112749307</v>
       </c>
       <c r="C18">
-        <v>8.738585422675223</v>
+        <v>9.082436912499308</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.44012239234304</v>
+        <v>13.03458787841513</v>
       </c>
       <c r="F18">
-        <v>30.79593234413329</v>
+        <v>29.9462716021051</v>
       </c>
       <c r="G18">
-        <v>27.00296088039893</v>
+        <v>24.35867068102764</v>
       </c>
       <c r="H18">
-        <v>4.712688047666807</v>
+        <v>4.69261938901638</v>
       </c>
       <c r="I18">
-        <v>2.997555220139526</v>
+        <v>2.864804865602752</v>
       </c>
       <c r="J18">
-        <v>10.15905945219204</v>
+        <v>9.899002932235872</v>
       </c>
       <c r="K18">
-        <v>15.45530841071631</v>
+        <v>14.39466621937612</v>
       </c>
       <c r="L18">
-        <v>5.925624708562925</v>
+        <v>11.61230303225649</v>
       </c>
       <c r="M18">
-        <v>12.82280531624956</v>
+        <v>9.657199193426337</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.930720433740076</v>
       </c>
       <c r="O18">
-        <v>13.76010770051605</v>
+        <v>12.92185222004631</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.11048168929494</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.93828067278177</v>
+        <v>13.84673565657982</v>
       </c>
       <c r="C19">
-        <v>8.808159454694685</v>
+        <v>9.233948688911699</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.5290506712308</v>
+        <v>15.18903086625611</v>
       </c>
       <c r="F19">
-        <v>33.36004659829113</v>
+        <v>32.39794258954157</v>
       </c>
       <c r="G19">
-        <v>28.95666846377106</v>
+        <v>25.96758792033248</v>
       </c>
       <c r="H19">
-        <v>3.268562102147428</v>
+        <v>3.24168508954409</v>
       </c>
       <c r="I19">
-        <v>2.990147970095109</v>
+        <v>2.860019828868676</v>
       </c>
       <c r="J19">
-        <v>10.51287274158877</v>
+        <v>10.19447298167795</v>
       </c>
       <c r="K19">
-        <v>16.08794975331878</v>
+        <v>14.86962131317906</v>
       </c>
       <c r="L19">
-        <v>5.836755062823603</v>
+        <v>11.95888452540341</v>
       </c>
       <c r="M19">
-        <v>12.708188454746</v>
+        <v>10.03506840974403</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.812714416823478</v>
       </c>
       <c r="O19">
-        <v>14.77671381311409</v>
+        <v>12.81818163266801</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.16913870323743</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.94914259240099</v>
+        <v>13.81093135247469</v>
       </c>
       <c r="C20">
-        <v>9.123913191395964</v>
+        <v>9.6739764327794</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.02268813984961</v>
+        <v>18.84470412244408</v>
       </c>
       <c r="F20">
-        <v>37.74851628968025</v>
+        <v>36.50496446229234</v>
       </c>
       <c r="G20">
-        <v>32.18340181505061</v>
+        <v>28.69954938643414</v>
       </c>
       <c r="H20">
-        <v>1.729523771281339</v>
+        <v>1.695315692954146</v>
       </c>
       <c r="I20">
-        <v>2.880464127648739</v>
+        <v>2.769034252032414</v>
       </c>
       <c r="J20">
-        <v>11.0673076911864</v>
+        <v>10.50417752278054</v>
       </c>
       <c r="K20">
-        <v>17.09145579285062</v>
+        <v>15.5267739143085</v>
       </c>
       <c r="L20">
-        <v>5.893862000391442</v>
+        <v>12.40739380437667</v>
       </c>
       <c r="M20">
-        <v>12.8297366296832</v>
+        <v>10.61372955753563</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.812595376240726</v>
       </c>
       <c r="O20">
-        <v>16.59743151985494</v>
+        <v>12.94687128818409</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.08674823076426</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.74174557037323</v>
+        <v>14.57284975830614</v>
       </c>
       <c r="C21">
-        <v>9.673828421365856</v>
+        <v>10.14512604581991</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.23663322137221</v>
+        <v>20.3899155113601</v>
       </c>
       <c r="F21">
-        <v>39.60637213519467</v>
+        <v>37.83915485713566</v>
       </c>
       <c r="G21">
-        <v>33.19449920569755</v>
+        <v>30.35879069491655</v>
       </c>
       <c r="H21">
-        <v>1.730669048956291</v>
+        <v>1.745293313220243</v>
       </c>
       <c r="I21">
-        <v>2.658266928046915</v>
+        <v>2.59028466309839</v>
       </c>
       <c r="J21">
-        <v>11.14710904547762</v>
+        <v>9.705086693976956</v>
       </c>
       <c r="K21">
-        <v>17.20702526601156</v>
+        <v>15.17083664206348</v>
       </c>
       <c r="L21">
-        <v>5.966099196931322</v>
+        <v>12.05554400286254</v>
       </c>
       <c r="M21">
-        <v>13.51909567880449</v>
+        <v>10.50465619833457</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.863980474964557</v>
       </c>
       <c r="O21">
-        <v>17.59534149272581</v>
+        <v>13.58908455707126</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.23776796592747</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.25597310447974</v>
+        <v>15.07016495587061</v>
       </c>
       <c r="C22">
-        <v>9.991512374092725</v>
+        <v>10.40041514095453</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.8321769633179</v>
+        <v>21.20631883992404</v>
       </c>
       <c r="F22">
-        <v>40.64573027214124</v>
+        <v>38.53001494603617</v>
       </c>
       <c r="G22">
-        <v>33.81472638725079</v>
+        <v>31.50874211223923</v>
       </c>
       <c r="H22">
-        <v>1.92729433800517</v>
+        <v>1.929919263132627</v>
       </c>
       <c r="I22">
-        <v>2.505437473373008</v>
+        <v>2.556545833058853</v>
       </c>
       <c r="J22">
-        <v>11.19500062246886</v>
+        <v>9.199798787015547</v>
       </c>
       <c r="K22">
-        <v>17.27922456644363</v>
+        <v>14.91864161813724</v>
       </c>
       <c r="L22">
-        <v>6.007405426531489</v>
+        <v>11.81986224223587</v>
       </c>
       <c r="M22">
-        <v>13.95342683625676</v>
+        <v>10.42300868673957</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.894186317509958</v>
       </c>
       <c r="O22">
-        <v>18.1398469793666</v>
+        <v>13.99101545428923</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.88205358560428</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.99138313181152</v>
+        <v>14.81197354564877</v>
       </c>
       <c r="C23">
-        <v>9.799497493050204</v>
+        <v>10.26215333115296</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.49514936597652</v>
+        <v>20.72448611968904</v>
       </c>
       <c r="F23">
-        <v>40.12900173525836</v>
+        <v>38.23690491556941</v>
       </c>
       <c r="G23">
-        <v>33.58072504040466</v>
+        <v>30.8599518675825</v>
       </c>
       <c r="H23">
-        <v>1.82329648351367</v>
+        <v>1.832827021000549</v>
       </c>
       <c r="I23">
-        <v>2.573986286866587</v>
+        <v>2.514480733419904</v>
       </c>
       <c r="J23">
-        <v>11.18799149752425</v>
+        <v>9.554352679817082</v>
       </c>
       <c r="K23">
-        <v>17.28109395675902</v>
+        <v>15.11943891472741</v>
       </c>
       <c r="L23">
-        <v>5.987487150717448</v>
+        <v>11.98872307271426</v>
       </c>
       <c r="M23">
-        <v>13.72022571469445</v>
+        <v>10.52284684833156</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.88070188992879</v>
       </c>
       <c r="O23">
-        <v>17.83752197548155</v>
+        <v>13.78065161695685</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.51649290806951</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.9311261113291</v>
+        <v>13.78970102480223</v>
       </c>
       <c r="C24">
-        <v>9.087562036543691</v>
+        <v>9.648011544745415</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.20632671336941</v>
+        <v>19.03627825913542</v>
       </c>
       <c r="F24">
-        <v>38.0686806945351</v>
+        <v>36.81086298619733</v>
       </c>
       <c r="G24">
-        <v>32.5496302339861</v>
+        <v>29.00774270087063</v>
       </c>
       <c r="H24">
-        <v>1.703995547933729</v>
+        <v>1.669835753679517</v>
       </c>
       <c r="I24">
-        <v>2.861254087560138</v>
+        <v>2.746202398310743</v>
       </c>
       <c r="J24">
-        <v>11.13774132366371</v>
+        <v>10.56791913466921</v>
       </c>
       <c r="K24">
-        <v>17.23123278373963</v>
+        <v>15.63909140920047</v>
       </c>
       <c r="L24">
-        <v>5.906254636769033</v>
+        <v>12.48974460513456</v>
       </c>
       <c r="M24">
-        <v>12.80669888357611</v>
+        <v>10.70206564860615</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.819264983926505</v>
       </c>
       <c r="O24">
-        <v>16.67301979175021</v>
+        <v>12.92557459483356</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.16782397029332</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.68896228094878</v>
+        <v>12.61338750897786</v>
       </c>
       <c r="C25">
-        <v>8.271637293911818</v>
+        <v>8.707734257283461</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.71785839593572</v>
+        <v>17.43392457696184</v>
       </c>
       <c r="F25">
-        <v>35.75578896861298</v>
+        <v>34.73156020744917</v>
       </c>
       <c r="G25">
-        <v>31.46653995614444</v>
+        <v>28.37018939910388</v>
       </c>
       <c r="H25">
-        <v>2.167385970141253</v>
+        <v>2.114929762849718</v>
       </c>
       <c r="I25">
-        <v>3.185668317931139</v>
+        <v>3.023407323417191</v>
       </c>
       <c r="J25">
-        <v>11.09779895661102</v>
+        <v>10.65105061465514</v>
       </c>
       <c r="K25">
-        <v>17.19707465194041</v>
+        <v>15.82727654049822</v>
       </c>
       <c r="L25">
-        <v>5.813055192859048</v>
+        <v>12.77834721910105</v>
       </c>
       <c r="M25">
-        <v>11.74630870991286</v>
+        <v>10.63232260197645</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.730680961625541</v>
       </c>
       <c r="O25">
-        <v>15.33029231771733</v>
+        <v>11.86711722375385</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.74809705545142</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
